--- a/general/Genetic algorithm/num of gens.xlsx
+++ b/general/Genetic algorithm/num of gens.xlsx
@@ -373,7 +373,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,27 +482,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,10 +496,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -741,14 +721,14 @@
   </sheetPr>
   <dimension ref="C1:X18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.53"/>
   </cols>
@@ -1333,10 +1313,10 @@
         <f aca="false">$U$5-U11</f>
         <v>154</v>
       </c>
-      <c r="T11" s="27" t="n">
+      <c r="T11" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="U11" s="28" t="n">
+      <c r="U11" s="24" t="n">
         <v>207</v>
       </c>
       <c r="W11" s="20" t="n">
@@ -1368,10 +1348,10 @@
         <f aca="false">$I$5-I12</f>
         <v>210</v>
       </c>
-      <c r="H12" s="27" t="n">
+      <c r="H12" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="I12" s="28" t="n">
+      <c r="I12" s="24" t="n">
         <v>151</v>
       </c>
       <c r="K12" s="20" t="n">
@@ -1401,10 +1381,10 @@
         <f aca="false">$U$5-U12</f>
         <v>169</v>
       </c>
-      <c r="T12" s="27" t="n">
+      <c r="T12" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="U12" s="28" t="n">
+      <c r="U12" s="24" t="n">
         <v>192</v>
       </c>
       <c r="W12" s="20" t="n">
@@ -1436,10 +1416,10 @@
         <f aca="false">$I$5-I13</f>
         <v>218</v>
       </c>
-      <c r="H13" s="27" t="n">
+      <c r="H13" s="25" t="n">
         <v>70</v>
       </c>
-      <c r="I13" s="28" t="n">
+      <c r="I13" s="24" t="n">
         <v>143</v>
       </c>
       <c r="K13" s="20" t="n">
@@ -1469,10 +1449,10 @@
         <f aca="false">$U$5-U13</f>
         <v>198</v>
       </c>
-      <c r="T13" s="27" t="n">
+      <c r="T13" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="U13" s="28" t="n">
+      <c r="U13" s="24" t="n">
         <v>163</v>
       </c>
       <c r="W13" s="20" t="n">
@@ -1504,10 +1484,10 @@
         <f aca="false">$I$5-I14</f>
         <v>258</v>
       </c>
-      <c r="H14" s="27" t="n">
+      <c r="H14" s="25" t="n">
         <v>100</v>
       </c>
-      <c r="I14" s="28" t="n">
+      <c r="I14" s="24" t="n">
         <v>103</v>
       </c>
       <c r="K14" s="20" t="n">
@@ -1537,7 +1517,7 @@
         <f aca="false">$U$5-U14</f>
         <v>205</v>
       </c>
-      <c r="T14" s="27" t="n">
+      <c r="T14" s="25" t="n">
         <v>110</v>
       </c>
       <c r="U14" s="24" t="n">
@@ -1572,7 +1552,7 @@
         <f aca="false">$I$5-I15</f>
         <v>265</v>
       </c>
-      <c r="H15" s="27" t="n">
+      <c r="H15" s="25" t="n">
         <v>110</v>
       </c>
       <c r="I15" s="24" t="n">
@@ -1585,11 +1565,11 @@
       <c r="L15" s="21" t="n">
         <v>558</v>
       </c>
-      <c r="O15" s="29" t="n">
+      <c r="O15" s="27" t="n">
         <f aca="false">[1]ga_no5!$P$19</f>
         <v>0.632160637114772</v>
       </c>
-      <c r="P15" s="30" t="n">
+      <c r="P15" s="28" t="n">
         <f aca="false">1-Q15</f>
         <v>-0.527777777777778</v>
       </c>
@@ -1597,7 +1577,7 @@
         <f aca="false">R15/$U$3</f>
         <v>1.52777777777778</v>
       </c>
-      <c r="R15" s="31" t="n">
+      <c r="R15" s="7" t="n">
         <f aca="false">S15*T15</f>
         <v>123200</v>
       </c>
@@ -1605,10 +1585,10 @@
         <f aca="false">$U$5-U15</f>
         <v>308</v>
       </c>
-      <c r="T15" s="32" t="n">
+      <c r="T15" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="U15" s="31" t="n">
+      <c r="U15" s="7" t="n">
         <v>53</v>
       </c>
       <c r="W15" s="20" t="n">
@@ -1621,18 +1601,18 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="27" t="n">
         <v>0.46</v>
       </c>
-      <c r="D16" s="30" t="n">
+      <c r="D16" s="28" t="n">
         <f aca="false">1-E16</f>
         <v>-2.29365079365079</v>
       </c>
-      <c r="E16" s="33" t="n">
+      <c r="E16" s="29" t="n">
         <f aca="false">F16/$I$3</f>
         <v>3.29365079365079</v>
       </c>
-      <c r="F16" s="31" t="n">
+      <c r="F16" s="7" t="n">
         <f aca="false">G16*H16</f>
         <v>132800</v>
       </c>
@@ -1640,10 +1620,10 @@
         <f aca="false">$I$5-I16</f>
         <v>332</v>
       </c>
-      <c r="H16" s="32" t="n">
+      <c r="H16" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="I16" s="31" t="n">
+      <c r="I16" s="7" t="n">
         <v>29</v>
       </c>
       <c r="K16" s="20" t="n">
@@ -1686,7 +1666,7 @@
         <f aca="false">L18*$G$3</f>
         <v>2.49984</v>
       </c>
-      <c r="L18" s="34" t="n">
+      <c r="L18" s="30" t="n">
         <v>93</v>
       </c>
       <c r="W18" s="20" t="n">
@@ -1716,8 +1696,8 @@
   </sheetPr>
   <dimension ref="B3:T585"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1725,7 +1705,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.71"/>
@@ -1743,10 +1723,10 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1761,11 +1741,11 @@
       <c r="I4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="Q4" s="11"/>
@@ -1774,19 +1754,19 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="38" t="n">
+      <c r="B5" s="33" t="n">
         <v>15</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="34" t="n">
         <v>1410000</v>
       </c>
-      <c r="D5" s="39" t="n">
+      <c r="D5" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="39" t="n">
+      <c r="E5" s="34" t="n">
         <v>214</v>
       </c>
-      <c r="F5" s="40" t="n">
+      <c r="F5" s="35" t="n">
         <v>7</v>
       </c>
       <c r="G5" s="7" t="n">
@@ -1795,14 +1775,14 @@
       <c r="H5" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="I5" s="33" t="n">
+      <c r="I5" s="29" t="n">
         <v>0.9</v>
       </c>
-      <c r="J5" s="41" t="n">
+      <c r="J5" s="36" t="n">
         <v>0.1</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="Q5" s="11"/>
@@ -1823,13 +1803,13 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1838,10 +1818,10 @@
       <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="44"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -1852,47 +1832,47 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="45" t="n">
+      <c r="B7" s="40" t="n">
         <f aca="false">F5*3600*24</f>
         <v>604800</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="41" t="n">
         <f aca="false">B7/B5</f>
         <v>40320</v>
       </c>
-      <c r="D7" s="47" t="n">
+      <c r="D7" s="42" t="n">
         <f aca="false">C7/C5</f>
         <v>0.0285957446808511</v>
       </c>
-      <c r="E7" s="48" t="n">
+      <c r="E7" s="43" t="n">
         <f aca="false">D7/G5</f>
         <v>2.30610844200412E-005</v>
       </c>
-      <c r="F7" s="49" t="n">
+      <c r="F7" s="44" t="n">
         <f aca="false">ROUND(E5*J5,0)</f>
         <v>21</v>
       </c>
-      <c r="G7" s="49" t="n">
+      <c r="G7" s="44" t="n">
         <f aca="false">D5*E5</f>
         <v>214</v>
       </c>
-      <c r="H7" s="49" t="n">
+      <c r="H7" s="44" t="n">
         <f aca="false">F7*D5</f>
         <v>21</v>
       </c>
-      <c r="I7" s="50" t="n">
+      <c r="I7" s="45" t="n">
         <f aca="false">C7/G5</f>
         <v>32.5161290322581</v>
       </c>
-      <c r="J7" s="51" t="n">
+      <c r="J7" s="46" t="n">
         <f aca="false">G7*G5</f>
         <v>265360</v>
       </c>
-      <c r="K7" s="52" t="n">
+      <c r="K7" s="47" t="n">
         <f aca="true">SUM(OFFSET($C$12,0,0,G5/H5))*H5</f>
         <v>40713.3312423944</v>
       </c>
-      <c r="L7" s="43"/>
+      <c r="L7" s="38"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -1936,7 +1916,7 @@
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="48"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -1990,7 +1970,7 @@
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="54" t="n">
+      <c r="C12" s="49" t="n">
         <f aca="false">IF($I$5^B12*$G$7&gt;$H$7,$I$5^B12*$G$7,$H$7)</f>
         <v>214</v>
       </c>
@@ -1999,7 +1979,7 @@
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="54" t="n">
+      <c r="C13" s="49" t="n">
         <f aca="false">IF($I$5^B13*$G$7&gt;$H$7,$I$5^B13*$G$7,$H$7)</f>
         <v>192.6</v>
       </c>
@@ -2008,7 +1988,7 @@
       <c r="B14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="49" t="n">
         <f aca="false">IF($I$5^B14*$G$7&gt;$H$7,$I$5^B14*$G$7,$H$7)</f>
         <v>173.34</v>
       </c>
@@ -2017,7 +1997,7 @@
       <c r="B15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="54" t="n">
+      <c r="C15" s="49" t="n">
         <f aca="false">IF($I$5^B15*$G$7&gt;$H$7,$I$5^B15*$G$7,$H$7)</f>
         <v>156.006</v>
       </c>
@@ -2026,7 +2006,7 @@
       <c r="B16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C16" s="54" t="n">
+      <c r="C16" s="49" t="n">
         <f aca="false">IF($I$5^B16*$G$7&gt;$H$7,$I$5^B16*$G$7,$H$7)</f>
         <v>140.4054</v>
       </c>
@@ -2035,7 +2015,7 @@
       <c r="B17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="54" t="n">
+      <c r="C17" s="49" t="n">
         <f aca="false">IF($I$5^B17*$G$7&gt;$H$7,$I$5^B17*$G$7,$H$7)</f>
         <v>126.36486</v>
       </c>
@@ -2044,7 +2024,7 @@
       <c r="B18" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C18" s="54" t="n">
+      <c r="C18" s="49" t="n">
         <f aca="false">IF($I$5^B18*$G$7&gt;$H$7,$I$5^B18*$G$7,$H$7)</f>
         <v>113.728374</v>
       </c>
@@ -2053,7 +2033,7 @@
       <c r="B19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="54" t="n">
+      <c r="C19" s="49" t="n">
         <f aca="false">IF($I$5^B19*$G$7&gt;$H$7,$I$5^B19*$G$7,$H$7)</f>
         <v>102.3555366</v>
       </c>
@@ -2062,7 +2042,7 @@
       <c r="B20" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C20" s="54" t="n">
+      <c r="C20" s="49" t="n">
         <f aca="false">IF($I$5^B20*$G$7&gt;$H$7,$I$5^B20*$G$7,$H$7)</f>
         <v>92.11998294</v>
       </c>
@@ -2071,7 +2051,7 @@
       <c r="B21" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C21" s="54" t="n">
+      <c r="C21" s="49" t="n">
         <f aca="false">IF($I$5^B21*$G$7&gt;$H$7,$I$5^B21*$G$7,$H$7)</f>
         <v>82.907984646</v>
       </c>
@@ -2080,7 +2060,7 @@
       <c r="B22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C22" s="54" t="n">
+      <c r="C22" s="49" t="n">
         <f aca="false">IF($I$5^B22*$G$7&gt;$H$7,$I$5^B22*$G$7,$H$7)</f>
         <v>74.6171861814</v>
       </c>
@@ -2089,7 +2069,7 @@
       <c r="B23" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="C23" s="54" t="n">
+      <c r="C23" s="49" t="n">
         <f aca="false">IF($I$5^B23*$G$7&gt;$H$7,$I$5^B23*$G$7,$H$7)</f>
         <v>67.15546756326</v>
       </c>
@@ -2098,7 +2078,7 @@
       <c r="B24" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C24" s="54" t="n">
+      <c r="C24" s="49" t="n">
         <f aca="false">IF($I$5^B24*$G$7&gt;$H$7,$I$5^B24*$G$7,$H$7)</f>
         <v>60.439920806934</v>
       </c>
@@ -2107,7 +2087,7 @@
       <c r="B25" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C25" s="54" t="n">
+      <c r="C25" s="49" t="n">
         <f aca="false">IF($I$5^B25*$G$7&gt;$H$7,$I$5^B25*$G$7,$H$7)</f>
         <v>54.3959287262406</v>
       </c>
@@ -2116,7 +2096,7 @@
       <c r="B26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C26" s="54" t="n">
+      <c r="C26" s="49" t="n">
         <f aca="false">IF($I$5^B26*$G$7&gt;$H$7,$I$5^B26*$G$7,$H$7)</f>
         <v>48.9563358536166</v>
       </c>
@@ -2125,7 +2105,7 @@
       <c r="B27" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C27" s="54" t="n">
+      <c r="C27" s="49" t="n">
         <f aca="false">IF($I$5^B27*$G$7&gt;$H$7,$I$5^B27*$G$7,$H$7)</f>
         <v>44.0607022682549</v>
       </c>
@@ -2134,7 +2114,7 @@
       <c r="B28" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C28" s="54" t="n">
+      <c r="C28" s="49" t="n">
         <f aca="false">IF($I$5^B28*$G$7&gt;$H$7,$I$5^B28*$G$7,$H$7)</f>
         <v>39.6546320414294</v>
       </c>
@@ -2143,7 +2123,7 @@
       <c r="B29" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C29" s="54" t="n">
+      <c r="C29" s="49" t="n">
         <f aca="false">IF($I$5^B29*$G$7&gt;$H$7,$I$5^B29*$G$7,$H$7)</f>
         <v>35.6891688372865</v>
       </c>
@@ -2152,7 +2132,7 @@
       <c r="B30" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C30" s="54" t="n">
+      <c r="C30" s="49" t="n">
         <f aca="false">IF($I$5^B30*$G$7&gt;$H$7,$I$5^B30*$G$7,$H$7)</f>
         <v>32.1202519535578</v>
       </c>
@@ -2161,7 +2141,7 @@
       <c r="B31" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C31" s="54" t="n">
+      <c r="C31" s="49" t="n">
         <f aca="false">IF($I$5^B31*$G$7&gt;$H$7,$I$5^B31*$G$7,$H$7)</f>
         <v>28.908226758202</v>
       </c>
@@ -2170,7 +2150,7 @@
       <c r="B32" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C32" s="54" t="n">
+      <c r="C32" s="49" t="n">
         <f aca="false">IF($I$5^B32*$G$7&gt;$H$7,$I$5^B32*$G$7,$H$7)</f>
         <v>26.0174040823818</v>
       </c>
@@ -2179,7 +2159,7 @@
       <c r="B33" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="C33" s="54" t="n">
+      <c r="C33" s="49" t="n">
         <f aca="false">IF($I$5^B33*$G$7&gt;$H$7,$I$5^B33*$G$7,$H$7)</f>
         <v>23.4156636741437</v>
       </c>
@@ -2188,7 +2168,7 @@
       <c r="B34" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C34" s="54" t="n">
+      <c r="C34" s="49" t="n">
         <f aca="false">IF($I$5^B34*$G$7&gt;$H$7,$I$5^B34*$G$7,$H$7)</f>
         <v>21.0740973067293</v>
       </c>
@@ -2197,7 +2177,7 @@
       <c r="B35" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="C35" s="54" t="n">
+      <c r="C35" s="49" t="n">
         <f aca="false">IF($I$5^B35*$G$7&gt;$H$7,$I$5^B35*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2206,7 +2186,7 @@
       <c r="B36" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C36" s="54" t="n">
+      <c r="C36" s="49" t="n">
         <f aca="false">IF($I$5^B36*$G$7&gt;$H$7,$I$5^B36*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2215,7 +2195,7 @@
       <c r="B37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C37" s="54" t="n">
+      <c r="C37" s="49" t="n">
         <f aca="false">IF($I$5^B37*$G$7&gt;$H$7,$I$5^B37*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2224,7 +2204,7 @@
       <c r="B38" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C38" s="54" t="n">
+      <c r="C38" s="49" t="n">
         <f aca="false">IF($I$5^B38*$G$7&gt;$H$7,$I$5^B38*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2233,7 +2213,7 @@
       <c r="B39" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="C39" s="54" t="n">
+      <c r="C39" s="49" t="n">
         <f aca="false">IF($I$5^B39*$G$7&gt;$H$7,$I$5^B39*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2242,7 +2222,7 @@
       <c r="B40" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="C40" s="54" t="n">
+      <c r="C40" s="49" t="n">
         <f aca="false">IF($I$5^B40*$G$7&gt;$H$7,$I$5^B40*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2251,7 +2231,7 @@
       <c r="B41" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C41" s="54" t="n">
+      <c r="C41" s="49" t="n">
         <f aca="false">IF($I$5^B41*$G$7&gt;$H$7,$I$5^B41*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2260,7 +2240,7 @@
       <c r="B42" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C42" s="54" t="n">
+      <c r="C42" s="49" t="n">
         <f aca="false">IF($I$5^B42*$G$7&gt;$H$7,$I$5^B42*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2269,7 +2249,7 @@
       <c r="B43" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C43" s="54" t="n">
+      <c r="C43" s="49" t="n">
         <f aca="false">IF($I$5^B43*$G$7&gt;$H$7,$I$5^B43*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2278,7 +2258,7 @@
       <c r="B44" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C44" s="54" t="n">
+      <c r="C44" s="49" t="n">
         <f aca="false">IF($I$5^B44*$G$7&gt;$H$7,$I$5^B44*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2287,7 +2267,7 @@
       <c r="B45" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C45" s="54" t="n">
+      <c r="C45" s="49" t="n">
         <f aca="false">IF($I$5^B45*$G$7&gt;$H$7,$I$5^B45*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2296,7 +2276,7 @@
       <c r="B46" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C46" s="54" t="n">
+      <c r="C46" s="49" t="n">
         <f aca="false">IF($I$5^B46*$G$7&gt;$H$7,$I$5^B46*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2305,7 +2285,7 @@
       <c r="B47" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C47" s="54" t="n">
+      <c r="C47" s="49" t="n">
         <f aca="false">IF($I$5^B47*$G$7&gt;$H$7,$I$5^B47*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2314,7 +2294,7 @@
       <c r="B48" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C48" s="54" t="n">
+      <c r="C48" s="49" t="n">
         <f aca="false">IF($I$5^B48*$G$7&gt;$H$7,$I$5^B48*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2323,7 +2303,7 @@
       <c r="B49" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C49" s="54" t="n">
+      <c r="C49" s="49" t="n">
         <f aca="false">IF($I$5^B49*$G$7&gt;$H$7,$I$5^B49*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2332,7 +2312,7 @@
       <c r="B50" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="C50" s="54" t="n">
+      <c r="C50" s="49" t="n">
         <f aca="false">IF($I$5^B50*$G$7&gt;$H$7,$I$5^B50*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2341,7 +2321,7 @@
       <c r="B51" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C51" s="54" t="n">
+      <c r="C51" s="49" t="n">
         <f aca="false">IF($I$5^B51*$G$7&gt;$H$7,$I$5^B51*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2350,7 +2330,7 @@
       <c r="B52" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C52" s="54" t="n">
+      <c r="C52" s="49" t="n">
         <f aca="false">IF($I$5^B52*$G$7&gt;$H$7,$I$5^B52*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2359,7 +2339,7 @@
       <c r="B53" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C53" s="54" t="n">
+      <c r="C53" s="49" t="n">
         <f aca="false">IF($I$5^B53*$G$7&gt;$H$7,$I$5^B53*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2368,7 +2348,7 @@
       <c r="B54" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C54" s="54" t="n">
+      <c r="C54" s="49" t="n">
         <f aca="false">IF($I$5^B54*$G$7&gt;$H$7,$I$5^B54*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2377,7 +2357,7 @@
       <c r="B55" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C55" s="54" t="n">
+      <c r="C55" s="49" t="n">
         <f aca="false">IF($I$5^B55*$G$7&gt;$H$7,$I$5^B55*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2386,7 +2366,7 @@
       <c r="B56" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C56" s="54" t="n">
+      <c r="C56" s="49" t="n">
         <f aca="false">IF($I$5^B56*$G$7&gt;$H$7,$I$5^B56*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2395,7 +2375,7 @@
       <c r="B57" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C57" s="54" t="n">
+      <c r="C57" s="49" t="n">
         <f aca="false">IF($I$5^B57*$G$7&gt;$H$7,$I$5^B57*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2404,7 +2384,7 @@
       <c r="B58" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="C58" s="54" t="n">
+      <c r="C58" s="49" t="n">
         <f aca="false">IF($I$5^B58*$G$7&gt;$H$7,$I$5^B58*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2413,7 +2393,7 @@
       <c r="B59" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="C59" s="54" t="n">
+      <c r="C59" s="49" t="n">
         <f aca="false">IF($I$5^B59*$G$7&gt;$H$7,$I$5^B59*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2422,7 +2402,7 @@
       <c r="B60" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C60" s="54" t="n">
+      <c r="C60" s="49" t="n">
         <f aca="false">IF($I$5^B60*$G$7&gt;$H$7,$I$5^B60*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2431,7 +2411,7 @@
       <c r="B61" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="C61" s="54" t="n">
+      <c r="C61" s="49" t="n">
         <f aca="false">IF($I$5^B61*$G$7&gt;$H$7,$I$5^B61*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2440,7 +2420,7 @@
       <c r="B62" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="C62" s="54" t="n">
+      <c r="C62" s="49" t="n">
         <f aca="false">IF($I$5^B62*$G$7&gt;$H$7,$I$5^B62*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2449,7 +2429,7 @@
       <c r="B63" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="C63" s="54" t="n">
+      <c r="C63" s="49" t="n">
         <f aca="false">IF($I$5^B63*$G$7&gt;$H$7,$I$5^B63*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2458,7 +2438,7 @@
       <c r="B64" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="C64" s="54" t="n">
+      <c r="C64" s="49" t="n">
         <f aca="false">IF($I$5^B64*$G$7&gt;$H$7,$I$5^B64*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2467,7 +2447,7 @@
       <c r="B65" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="C65" s="54" t="n">
+      <c r="C65" s="49" t="n">
         <f aca="false">IF($I$5^B65*$G$7&gt;$H$7,$I$5^B65*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2476,7 +2456,7 @@
       <c r="B66" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="C66" s="54" t="n">
+      <c r="C66" s="49" t="n">
         <f aca="false">IF($I$5^B66*$G$7&gt;$H$7,$I$5^B66*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2485,7 +2465,7 @@
       <c r="B67" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="C67" s="54" t="n">
+      <c r="C67" s="49" t="n">
         <f aca="false">IF($I$5^B67*$G$7&gt;$H$7,$I$5^B67*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2494,7 +2474,7 @@
       <c r="B68" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="C68" s="54" t="n">
+      <c r="C68" s="49" t="n">
         <f aca="false">IF($I$5^B68*$G$7&gt;$H$7,$I$5^B68*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2503,7 +2483,7 @@
       <c r="B69" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="C69" s="54" t="n">
+      <c r="C69" s="49" t="n">
         <f aca="false">IF($I$5^B69*$G$7&gt;$H$7,$I$5^B69*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2512,7 +2492,7 @@
       <c r="B70" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="C70" s="54" t="n">
+      <c r="C70" s="49" t="n">
         <f aca="false">IF($I$5^B70*$G$7&gt;$H$7,$I$5^B70*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2521,7 +2501,7 @@
       <c r="B71" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="C71" s="54" t="n">
+      <c r="C71" s="49" t="n">
         <f aca="false">IF($I$5^B71*$G$7&gt;$H$7,$I$5^B71*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2530,7 +2510,7 @@
       <c r="B72" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C72" s="54" t="n">
+      <c r="C72" s="49" t="n">
         <f aca="false">IF($I$5^B72*$G$7&gt;$H$7,$I$5^B72*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2539,7 +2519,7 @@
       <c r="B73" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="C73" s="54" t="n">
+      <c r="C73" s="49" t="n">
         <f aca="false">IF($I$5^B73*$G$7&gt;$H$7,$I$5^B73*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2548,7 +2528,7 @@
       <c r="B74" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="C74" s="54" t="n">
+      <c r="C74" s="49" t="n">
         <f aca="false">IF($I$5^B74*$G$7&gt;$H$7,$I$5^B74*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2557,7 +2537,7 @@
       <c r="B75" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="C75" s="54" t="n">
+      <c r="C75" s="49" t="n">
         <f aca="false">IF($I$5^B75*$G$7&gt;$H$7,$I$5^B75*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2566,7 +2546,7 @@
       <c r="B76" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="C76" s="54" t="n">
+      <c r="C76" s="49" t="n">
         <f aca="false">IF($I$5^B76*$G$7&gt;$H$7,$I$5^B76*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2575,7 +2555,7 @@
       <c r="B77" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="C77" s="54" t="n">
+      <c r="C77" s="49" t="n">
         <f aca="false">IF($I$5^B77*$G$7&gt;$H$7,$I$5^B77*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2584,7 +2564,7 @@
       <c r="B78" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="C78" s="54" t="n">
+      <c r="C78" s="49" t="n">
         <f aca="false">IF($I$5^B78*$G$7&gt;$H$7,$I$5^B78*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2593,7 +2573,7 @@
       <c r="B79" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="C79" s="54" t="n">
+      <c r="C79" s="49" t="n">
         <f aca="false">IF($I$5^B79*$G$7&gt;$H$7,$I$5^B79*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2602,7 +2582,7 @@
       <c r="B80" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="C80" s="54" t="n">
+      <c r="C80" s="49" t="n">
         <f aca="false">IF($I$5^B80*$G$7&gt;$H$7,$I$5^B80*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2611,7 +2591,7 @@
       <c r="B81" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="C81" s="54" t="n">
+      <c r="C81" s="49" t="n">
         <f aca="false">IF($I$5^B81*$G$7&gt;$H$7,$I$5^B81*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2620,7 +2600,7 @@
       <c r="B82" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="C82" s="54" t="n">
+      <c r="C82" s="49" t="n">
         <f aca="false">IF($I$5^B82*$G$7&gt;$H$7,$I$5^B82*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2629,7 +2609,7 @@
       <c r="B83" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="C83" s="54" t="n">
+      <c r="C83" s="49" t="n">
         <f aca="false">IF($I$5^B83*$G$7&gt;$H$7,$I$5^B83*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2638,7 +2618,7 @@
       <c r="B84" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C84" s="54" t="n">
+      <c r="C84" s="49" t="n">
         <f aca="false">IF($I$5^B84*$G$7&gt;$H$7,$I$5^B84*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2647,7 +2627,7 @@
       <c r="B85" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="C85" s="54" t="n">
+      <c r="C85" s="49" t="n">
         <f aca="false">IF($I$5^B85*$G$7&gt;$H$7,$I$5^B85*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2656,7 +2636,7 @@
       <c r="B86" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="C86" s="54" t="n">
+      <c r="C86" s="49" t="n">
         <f aca="false">IF($I$5^B86*$G$7&gt;$H$7,$I$5^B86*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2665,7 +2645,7 @@
       <c r="B87" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="C87" s="54" t="n">
+      <c r="C87" s="49" t="n">
         <f aca="false">IF($I$5^B87*$G$7&gt;$H$7,$I$5^B87*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2674,7 +2654,7 @@
       <c r="B88" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="C88" s="54" t="n">
+      <c r="C88" s="49" t="n">
         <f aca="false">IF($I$5^B88*$G$7&gt;$H$7,$I$5^B88*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2683,7 +2663,7 @@
       <c r="B89" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="C89" s="54" t="n">
+      <c r="C89" s="49" t="n">
         <f aca="false">IF($I$5^B89*$G$7&gt;$H$7,$I$5^B89*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2692,7 +2672,7 @@
       <c r="B90" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="C90" s="54" t="n">
+      <c r="C90" s="49" t="n">
         <f aca="false">IF($I$5^B90*$G$7&gt;$H$7,$I$5^B90*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2701,7 +2681,7 @@
       <c r="B91" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="C91" s="54" t="n">
+      <c r="C91" s="49" t="n">
         <f aca="false">IF($I$5^B91*$G$7&gt;$H$7,$I$5^B91*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2710,7 +2690,7 @@
       <c r="B92" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="C92" s="54" t="n">
+      <c r="C92" s="49" t="n">
         <f aca="false">IF($I$5^B92*$G$7&gt;$H$7,$I$5^B92*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2719,7 +2699,7 @@
       <c r="B93" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="C93" s="54" t="n">
+      <c r="C93" s="49" t="n">
         <f aca="false">IF($I$5^B93*$G$7&gt;$H$7,$I$5^B93*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2728,7 +2708,7 @@
       <c r="B94" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="C94" s="54" t="n">
+      <c r="C94" s="49" t="n">
         <f aca="false">IF($I$5^B94*$G$7&gt;$H$7,$I$5^B94*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2737,7 +2717,7 @@
       <c r="B95" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="C95" s="54" t="n">
+      <c r="C95" s="49" t="n">
         <f aca="false">IF($I$5^B95*$G$7&gt;$H$7,$I$5^B95*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2746,7 +2726,7 @@
       <c r="B96" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C96" s="54" t="n">
+      <c r="C96" s="49" t="n">
         <f aca="false">IF($I$5^B96*$G$7&gt;$H$7,$I$5^B96*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2755,7 +2735,7 @@
       <c r="B97" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="C97" s="54" t="n">
+      <c r="C97" s="49" t="n">
         <f aca="false">IF($I$5^B97*$G$7&gt;$H$7,$I$5^B97*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2764,7 +2744,7 @@
       <c r="B98" s="0" t="n">
         <v>86</v>
       </c>
-      <c r="C98" s="54" t="n">
+      <c r="C98" s="49" t="n">
         <f aca="false">IF($I$5^B98*$G$7&gt;$H$7,$I$5^B98*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2773,7 +2753,7 @@
       <c r="B99" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="C99" s="54" t="n">
+      <c r="C99" s="49" t="n">
         <f aca="false">IF($I$5^B99*$G$7&gt;$H$7,$I$5^B99*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2782,7 +2762,7 @@
       <c r="B100" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="C100" s="54" t="n">
+      <c r="C100" s="49" t="n">
         <f aca="false">IF($I$5^B100*$G$7&gt;$H$7,$I$5^B100*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2791,7 +2771,7 @@
       <c r="B101" s="0" t="n">
         <v>89</v>
       </c>
-      <c r="C101" s="54" t="n">
+      <c r="C101" s="49" t="n">
         <f aca="false">IF($I$5^B101*$G$7&gt;$H$7,$I$5^B101*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2800,7 +2780,7 @@
       <c r="B102" s="0" t="n">
         <v>90</v>
       </c>
-      <c r="C102" s="54" t="n">
+      <c r="C102" s="49" t="n">
         <f aca="false">IF($I$5^B102*$G$7&gt;$H$7,$I$5^B102*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2809,7 +2789,7 @@
       <c r="B103" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="C103" s="54" t="n">
+      <c r="C103" s="49" t="n">
         <f aca="false">IF($I$5^B103*$G$7&gt;$H$7,$I$5^B103*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2818,7 +2798,7 @@
       <c r="B104" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="C104" s="54" t="n">
+      <c r="C104" s="49" t="n">
         <f aca="false">IF($I$5^B104*$G$7&gt;$H$7,$I$5^B104*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2827,7 +2807,7 @@
       <c r="B105" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="C105" s="54" t="n">
+      <c r="C105" s="49" t="n">
         <f aca="false">IF($I$5^B105*$G$7&gt;$H$7,$I$5^B105*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2836,7 +2816,7 @@
       <c r="B106" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="C106" s="54" t="n">
+      <c r="C106" s="49" t="n">
         <f aca="false">IF($I$5^B106*$G$7&gt;$H$7,$I$5^B106*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2845,7 +2825,7 @@
       <c r="B107" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="C107" s="54" t="n">
+      <c r="C107" s="49" t="n">
         <f aca="false">IF($I$5^B107*$G$7&gt;$H$7,$I$5^B107*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2854,7 +2834,7 @@
       <c r="B108" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C108" s="54" t="n">
+      <c r="C108" s="49" t="n">
         <f aca="false">IF($I$5^B108*$G$7&gt;$H$7,$I$5^B108*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2863,7 +2843,7 @@
       <c r="B109" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="C109" s="54" t="n">
+      <c r="C109" s="49" t="n">
         <f aca="false">IF($I$5^B109*$G$7&gt;$H$7,$I$5^B109*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2872,7 +2852,7 @@
       <c r="B110" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="C110" s="54" t="n">
+      <c r="C110" s="49" t="n">
         <f aca="false">IF($I$5^B110*$G$7&gt;$H$7,$I$5^B110*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2881,7 +2861,7 @@
       <c r="B111" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="C111" s="54" t="n">
+      <c r="C111" s="49" t="n">
         <f aca="false">IF($I$5^B111*$G$7&gt;$H$7,$I$5^B111*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2890,7 +2870,7 @@
       <c r="B112" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="C112" s="54" t="n">
+      <c r="C112" s="49" t="n">
         <f aca="false">IF($I$5^B112*$G$7&gt;$H$7,$I$5^B112*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2899,7 +2879,7 @@
       <c r="B113" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="C113" s="54" t="n">
+      <c r="C113" s="49" t="n">
         <f aca="false">IF($I$5^B113*$G$7&gt;$H$7,$I$5^B113*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2908,7 +2888,7 @@
       <c r="B114" s="0" t="n">
         <v>102</v>
       </c>
-      <c r="C114" s="54" t="n">
+      <c r="C114" s="49" t="n">
         <f aca="false">IF($I$5^B114*$G$7&gt;$H$7,$I$5^B114*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2917,7 +2897,7 @@
       <c r="B115" s="0" t="n">
         <v>103</v>
       </c>
-      <c r="C115" s="54" t="n">
+      <c r="C115" s="49" t="n">
         <f aca="false">IF($I$5^B115*$G$7&gt;$H$7,$I$5^B115*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2926,7 +2906,7 @@
       <c r="B116" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="C116" s="54" t="n">
+      <c r="C116" s="49" t="n">
         <f aca="false">IF($I$5^B116*$G$7&gt;$H$7,$I$5^B116*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2935,7 +2915,7 @@
       <c r="B117" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="C117" s="54" t="n">
+      <c r="C117" s="49" t="n">
         <f aca="false">IF($I$5^B117*$G$7&gt;$H$7,$I$5^B117*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2944,7 +2924,7 @@
       <c r="B118" s="0" t="n">
         <v>106</v>
       </c>
-      <c r="C118" s="54" t="n">
+      <c r="C118" s="49" t="n">
         <f aca="false">IF($I$5^B118*$G$7&gt;$H$7,$I$5^B118*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2953,7 +2933,7 @@
       <c r="B119" s="0" t="n">
         <v>107</v>
       </c>
-      <c r="C119" s="54" t="n">
+      <c r="C119" s="49" t="n">
         <f aca="false">IF($I$5^B119*$G$7&gt;$H$7,$I$5^B119*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2962,7 +2942,7 @@
       <c r="B120" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="C120" s="54" t="n">
+      <c r="C120" s="49" t="n">
         <f aca="false">IF($I$5^B120*$G$7&gt;$H$7,$I$5^B120*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2971,7 +2951,7 @@
       <c r="B121" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="C121" s="54" t="n">
+      <c r="C121" s="49" t="n">
         <f aca="false">IF($I$5^B121*$G$7&gt;$H$7,$I$5^B121*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2980,7 +2960,7 @@
       <c r="B122" s="0" t="n">
         <v>110</v>
       </c>
-      <c r="C122" s="54" t="n">
+      <c r="C122" s="49" t="n">
         <f aca="false">IF($I$5^B122*$G$7&gt;$H$7,$I$5^B122*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2989,7 +2969,7 @@
       <c r="B123" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="C123" s="54" t="n">
+      <c r="C123" s="49" t="n">
         <f aca="false">IF($I$5^B123*$G$7&gt;$H$7,$I$5^B123*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -2998,7 +2978,7 @@
       <c r="B124" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="C124" s="54" t="n">
+      <c r="C124" s="49" t="n">
         <f aca="false">IF($I$5^B124*$G$7&gt;$H$7,$I$5^B124*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3007,7 +2987,7 @@
       <c r="B125" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="C125" s="54" t="n">
+      <c r="C125" s="49" t="n">
         <f aca="false">IF($I$5^B125*$G$7&gt;$H$7,$I$5^B125*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3016,7 +2996,7 @@
       <c r="B126" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="C126" s="54" t="n">
+      <c r="C126" s="49" t="n">
         <f aca="false">IF($I$5^B126*$G$7&gt;$H$7,$I$5^B126*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3025,7 +3005,7 @@
       <c r="B127" s="0" t="n">
         <v>115</v>
       </c>
-      <c r="C127" s="54" t="n">
+      <c r="C127" s="49" t="n">
         <f aca="false">IF($I$5^B127*$G$7&gt;$H$7,$I$5^B127*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3034,7 +3014,7 @@
       <c r="B128" s="0" t="n">
         <v>116</v>
       </c>
-      <c r="C128" s="54" t="n">
+      <c r="C128" s="49" t="n">
         <f aca="false">IF($I$5^B128*$G$7&gt;$H$7,$I$5^B128*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3043,7 +3023,7 @@
       <c r="B129" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="C129" s="54" t="n">
+      <c r="C129" s="49" t="n">
         <f aca="false">IF($I$5^B129*$G$7&gt;$H$7,$I$5^B129*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3052,7 +3032,7 @@
       <c r="B130" s="0" t="n">
         <v>118</v>
       </c>
-      <c r="C130" s="54" t="n">
+      <c r="C130" s="49" t="n">
         <f aca="false">IF($I$5^B130*$G$7&gt;$H$7,$I$5^B130*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3061,7 +3041,7 @@
       <c r="B131" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="C131" s="54" t="n">
+      <c r="C131" s="49" t="n">
         <f aca="false">IF($I$5^B131*$G$7&gt;$H$7,$I$5^B131*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3070,7 +3050,7 @@
       <c r="B132" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="C132" s="54" t="n">
+      <c r="C132" s="49" t="n">
         <f aca="false">IF($I$5^B132*$G$7&gt;$H$7,$I$5^B132*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3079,7 +3059,7 @@
       <c r="B133" s="0" t="n">
         <v>121</v>
       </c>
-      <c r="C133" s="54" t="n">
+      <c r="C133" s="49" t="n">
         <f aca="false">IF($I$5^B133*$G$7&gt;$H$7,$I$5^B133*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3088,7 +3068,7 @@
       <c r="B134" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="C134" s="54" t="n">
+      <c r="C134" s="49" t="n">
         <f aca="false">IF($I$5^B134*$G$7&gt;$H$7,$I$5^B134*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3097,7 +3077,7 @@
       <c r="B135" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="C135" s="54" t="n">
+      <c r="C135" s="49" t="n">
         <f aca="false">IF($I$5^B135*$G$7&gt;$H$7,$I$5^B135*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3106,7 +3086,7 @@
       <c r="B136" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="C136" s="54" t="n">
+      <c r="C136" s="49" t="n">
         <f aca="false">IF($I$5^B136*$G$7&gt;$H$7,$I$5^B136*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3115,7 +3095,7 @@
       <c r="B137" s="0" t="n">
         <v>125</v>
       </c>
-      <c r="C137" s="54" t="n">
+      <c r="C137" s="49" t="n">
         <f aca="false">IF($I$5^B137*$G$7&gt;$H$7,$I$5^B137*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3124,7 +3104,7 @@
       <c r="B138" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="C138" s="54" t="n">
+      <c r="C138" s="49" t="n">
         <f aca="false">IF($I$5^B138*$G$7&gt;$H$7,$I$5^B138*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3133,7 +3113,7 @@
       <c r="B139" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="C139" s="54" t="n">
+      <c r="C139" s="49" t="n">
         <f aca="false">IF($I$5^B139*$G$7&gt;$H$7,$I$5^B139*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3142,7 +3122,7 @@
       <c r="B140" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="C140" s="54" t="n">
+      <c r="C140" s="49" t="n">
         <f aca="false">IF($I$5^B140*$G$7&gt;$H$7,$I$5^B140*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3151,7 +3131,7 @@
       <c r="B141" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="C141" s="54" t="n">
+      <c r="C141" s="49" t="n">
         <f aca="false">IF($I$5^B141*$G$7&gt;$H$7,$I$5^B141*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3160,7 +3140,7 @@
       <c r="B142" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="C142" s="54" t="n">
+      <c r="C142" s="49" t="n">
         <f aca="false">IF($I$5^B142*$G$7&gt;$H$7,$I$5^B142*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3169,7 +3149,7 @@
       <c r="B143" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="C143" s="54" t="n">
+      <c r="C143" s="49" t="n">
         <f aca="false">IF($I$5^B143*$G$7&gt;$H$7,$I$5^B143*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3178,7 +3158,7 @@
       <c r="B144" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="C144" s="54" t="n">
+      <c r="C144" s="49" t="n">
         <f aca="false">IF($I$5^B144*$G$7&gt;$H$7,$I$5^B144*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3187,7 +3167,7 @@
       <c r="B145" s="0" t="n">
         <v>133</v>
       </c>
-      <c r="C145" s="54" t="n">
+      <c r="C145" s="49" t="n">
         <f aca="false">IF($I$5^B145*$G$7&gt;$H$7,$I$5^B145*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3196,7 +3176,7 @@
       <c r="B146" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="C146" s="54" t="n">
+      <c r="C146" s="49" t="n">
         <f aca="false">IF($I$5^B146*$G$7&gt;$H$7,$I$5^B146*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3205,7 +3185,7 @@
       <c r="B147" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="C147" s="54" t="n">
+      <c r="C147" s="49" t="n">
         <f aca="false">IF($I$5^B147*$G$7&gt;$H$7,$I$5^B147*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3214,7 +3194,7 @@
       <c r="B148" s="0" t="n">
         <v>136</v>
       </c>
-      <c r="C148" s="54" t="n">
+      <c r="C148" s="49" t="n">
         <f aca="false">IF($I$5^B148*$G$7&gt;$H$7,$I$5^B148*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3223,7 +3203,7 @@
       <c r="B149" s="0" t="n">
         <v>137</v>
       </c>
-      <c r="C149" s="54" t="n">
+      <c r="C149" s="49" t="n">
         <f aca="false">IF($I$5^B149*$G$7&gt;$H$7,$I$5^B149*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3232,7 +3212,7 @@
       <c r="B150" s="0" t="n">
         <v>138</v>
       </c>
-      <c r="C150" s="54" t="n">
+      <c r="C150" s="49" t="n">
         <f aca="false">IF($I$5^B150*$G$7&gt;$H$7,$I$5^B150*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3241,7 +3221,7 @@
       <c r="B151" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="C151" s="54" t="n">
+      <c r="C151" s="49" t="n">
         <f aca="false">IF($I$5^B151*$G$7&gt;$H$7,$I$5^B151*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3250,7 +3230,7 @@
       <c r="B152" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="C152" s="54" t="n">
+      <c r="C152" s="49" t="n">
         <f aca="false">IF($I$5^B152*$G$7&gt;$H$7,$I$5^B152*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3259,7 +3239,7 @@
       <c r="B153" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="C153" s="54" t="n">
+      <c r="C153" s="49" t="n">
         <f aca="false">IF($I$5^B153*$G$7&gt;$H$7,$I$5^B153*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3268,7 +3248,7 @@
       <c r="B154" s="0" t="n">
         <v>142</v>
       </c>
-      <c r="C154" s="54" t="n">
+      <c r="C154" s="49" t="n">
         <f aca="false">IF($I$5^B154*$G$7&gt;$H$7,$I$5^B154*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3277,7 +3257,7 @@
       <c r="B155" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="C155" s="54" t="n">
+      <c r="C155" s="49" t="n">
         <f aca="false">IF($I$5^B155*$G$7&gt;$H$7,$I$5^B155*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3286,7 +3266,7 @@
       <c r="B156" s="0" t="n">
         <v>144</v>
       </c>
-      <c r="C156" s="54" t="n">
+      <c r="C156" s="49" t="n">
         <f aca="false">IF($I$5^B156*$G$7&gt;$H$7,$I$5^B156*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3295,7 +3275,7 @@
       <c r="B157" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="C157" s="54" t="n">
+      <c r="C157" s="49" t="n">
         <f aca="false">IF($I$5^B157*$G$7&gt;$H$7,$I$5^B157*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3304,7 +3284,7 @@
       <c r="B158" s="0" t="n">
         <v>146</v>
       </c>
-      <c r="C158" s="54" t="n">
+      <c r="C158" s="49" t="n">
         <f aca="false">IF($I$5^B158*$G$7&gt;$H$7,$I$5^B158*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3313,7 +3293,7 @@
       <c r="B159" s="0" t="n">
         <v>147</v>
       </c>
-      <c r="C159" s="54" t="n">
+      <c r="C159" s="49" t="n">
         <f aca="false">IF($I$5^B159*$G$7&gt;$H$7,$I$5^B159*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3322,7 +3302,7 @@
       <c r="B160" s="0" t="n">
         <v>148</v>
       </c>
-      <c r="C160" s="54" t="n">
+      <c r="C160" s="49" t="n">
         <f aca="false">IF($I$5^B160*$G$7&gt;$H$7,$I$5^B160*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3331,7 +3311,7 @@
       <c r="B161" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="C161" s="54" t="n">
+      <c r="C161" s="49" t="n">
         <f aca="false">IF($I$5^B161*$G$7&gt;$H$7,$I$5^B161*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3340,7 +3320,7 @@
       <c r="B162" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="C162" s="54" t="n">
+      <c r="C162" s="49" t="n">
         <f aca="false">IF($I$5^B162*$G$7&gt;$H$7,$I$5^B162*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3349,7 +3329,7 @@
       <c r="B163" s="0" t="n">
         <v>151</v>
       </c>
-      <c r="C163" s="54" t="n">
+      <c r="C163" s="49" t="n">
         <f aca="false">IF($I$5^B163*$G$7&gt;$H$7,$I$5^B163*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3358,7 +3338,7 @@
       <c r="B164" s="0" t="n">
         <v>152</v>
       </c>
-      <c r="C164" s="54" t="n">
+      <c r="C164" s="49" t="n">
         <f aca="false">IF($I$5^B164*$G$7&gt;$H$7,$I$5^B164*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3367,7 +3347,7 @@
       <c r="B165" s="0" t="n">
         <v>153</v>
       </c>
-      <c r="C165" s="54" t="n">
+      <c r="C165" s="49" t="n">
         <f aca="false">IF($I$5^B165*$G$7&gt;$H$7,$I$5^B165*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3376,7 +3356,7 @@
       <c r="B166" s="0" t="n">
         <v>154</v>
       </c>
-      <c r="C166" s="54" t="n">
+      <c r="C166" s="49" t="n">
         <f aca="false">IF($I$5^B166*$G$7&gt;$H$7,$I$5^B166*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3385,7 +3365,7 @@
       <c r="B167" s="0" t="n">
         <v>155</v>
       </c>
-      <c r="C167" s="54" t="n">
+      <c r="C167" s="49" t="n">
         <f aca="false">IF($I$5^B167*$G$7&gt;$H$7,$I$5^B167*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3394,7 +3374,7 @@
       <c r="B168" s="0" t="n">
         <v>156</v>
       </c>
-      <c r="C168" s="54" t="n">
+      <c r="C168" s="49" t="n">
         <f aca="false">IF($I$5^B168*$G$7&gt;$H$7,$I$5^B168*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3403,7 +3383,7 @@
       <c r="B169" s="0" t="n">
         <v>157</v>
       </c>
-      <c r="C169" s="54" t="n">
+      <c r="C169" s="49" t="n">
         <f aca="false">IF($I$5^B169*$G$7&gt;$H$7,$I$5^B169*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3412,7 +3392,7 @@
       <c r="B170" s="0" t="n">
         <v>158</v>
       </c>
-      <c r="C170" s="54" t="n">
+      <c r="C170" s="49" t="n">
         <f aca="false">IF($I$5^B170*$G$7&gt;$H$7,$I$5^B170*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3421,7 +3401,7 @@
       <c r="B171" s="0" t="n">
         <v>159</v>
       </c>
-      <c r="C171" s="54" t="n">
+      <c r="C171" s="49" t="n">
         <f aca="false">IF($I$5^B171*$G$7&gt;$H$7,$I$5^B171*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3430,7 +3410,7 @@
       <c r="B172" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="C172" s="54" t="n">
+      <c r="C172" s="49" t="n">
         <f aca="false">IF($I$5^B172*$G$7&gt;$H$7,$I$5^B172*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3439,7 +3419,7 @@
       <c r="B173" s="0" t="n">
         <v>161</v>
       </c>
-      <c r="C173" s="54" t="n">
+      <c r="C173" s="49" t="n">
         <f aca="false">IF($I$5^B173*$G$7&gt;$H$7,$I$5^B173*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3448,7 +3428,7 @@
       <c r="B174" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="C174" s="54" t="n">
+      <c r="C174" s="49" t="n">
         <f aca="false">IF($I$5^B174*$G$7&gt;$H$7,$I$5^B174*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3457,7 +3437,7 @@
       <c r="B175" s="0" t="n">
         <v>163</v>
       </c>
-      <c r="C175" s="54" t="n">
+      <c r="C175" s="49" t="n">
         <f aca="false">IF($I$5^B175*$G$7&gt;$H$7,$I$5^B175*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3466,7 +3446,7 @@
       <c r="B176" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="C176" s="54" t="n">
+      <c r="C176" s="49" t="n">
         <f aca="false">IF($I$5^B176*$G$7&gt;$H$7,$I$5^B176*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3475,7 +3455,7 @@
       <c r="B177" s="0" t="n">
         <v>165</v>
       </c>
-      <c r="C177" s="54" t="n">
+      <c r="C177" s="49" t="n">
         <f aca="false">IF($I$5^B177*$G$7&gt;$H$7,$I$5^B177*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3484,7 +3464,7 @@
       <c r="B178" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="C178" s="54" t="n">
+      <c r="C178" s="49" t="n">
         <f aca="false">IF($I$5^B178*$G$7&gt;$H$7,$I$5^B178*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3493,7 +3473,7 @@
       <c r="B179" s="0" t="n">
         <v>167</v>
       </c>
-      <c r="C179" s="54" t="n">
+      <c r="C179" s="49" t="n">
         <f aca="false">IF($I$5^B179*$G$7&gt;$H$7,$I$5^B179*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3502,7 +3482,7 @@
       <c r="B180" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="C180" s="54" t="n">
+      <c r="C180" s="49" t="n">
         <f aca="false">IF($I$5^B180*$G$7&gt;$H$7,$I$5^B180*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3511,7 +3491,7 @@
       <c r="B181" s="0" t="n">
         <v>169</v>
       </c>
-      <c r="C181" s="54" t="n">
+      <c r="C181" s="49" t="n">
         <f aca="false">IF($I$5^B181*$G$7&gt;$H$7,$I$5^B181*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3520,7 +3500,7 @@
       <c r="B182" s="0" t="n">
         <v>170</v>
       </c>
-      <c r="C182" s="54" t="n">
+      <c r="C182" s="49" t="n">
         <f aca="false">IF($I$5^B182*$G$7&gt;$H$7,$I$5^B182*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3529,7 +3509,7 @@
       <c r="B183" s="0" t="n">
         <v>171</v>
       </c>
-      <c r="C183" s="54" t="n">
+      <c r="C183" s="49" t="n">
         <f aca="false">IF($I$5^B183*$G$7&gt;$H$7,$I$5^B183*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3538,7 +3518,7 @@
       <c r="B184" s="0" t="n">
         <v>172</v>
       </c>
-      <c r="C184" s="54" t="n">
+      <c r="C184" s="49" t="n">
         <f aca="false">IF($I$5^B184*$G$7&gt;$H$7,$I$5^B184*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3547,7 +3527,7 @@
       <c r="B185" s="0" t="n">
         <v>173</v>
       </c>
-      <c r="C185" s="54" t="n">
+      <c r="C185" s="49" t="n">
         <f aca="false">IF($I$5^B185*$G$7&gt;$H$7,$I$5^B185*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3556,7 +3536,7 @@
       <c r="B186" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="C186" s="54" t="n">
+      <c r="C186" s="49" t="n">
         <f aca="false">IF($I$5^B186*$G$7&gt;$H$7,$I$5^B186*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3565,7 +3545,7 @@
       <c r="B187" s="0" t="n">
         <v>175</v>
       </c>
-      <c r="C187" s="54" t="n">
+      <c r="C187" s="49" t="n">
         <f aca="false">IF($I$5^B187*$G$7&gt;$H$7,$I$5^B187*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3574,7 +3554,7 @@
       <c r="B188" s="0" t="n">
         <v>176</v>
       </c>
-      <c r="C188" s="54" t="n">
+      <c r="C188" s="49" t="n">
         <f aca="false">IF($I$5^B188*$G$7&gt;$H$7,$I$5^B188*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3583,7 +3563,7 @@
       <c r="B189" s="0" t="n">
         <v>177</v>
       </c>
-      <c r="C189" s="54" t="n">
+      <c r="C189" s="49" t="n">
         <f aca="false">IF($I$5^B189*$G$7&gt;$H$7,$I$5^B189*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3592,7 +3572,7 @@
       <c r="B190" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="C190" s="54" t="n">
+      <c r="C190" s="49" t="n">
         <f aca="false">IF($I$5^B190*$G$7&gt;$H$7,$I$5^B190*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3601,7 +3581,7 @@
       <c r="B191" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="C191" s="54" t="n">
+      <c r="C191" s="49" t="n">
         <f aca="false">IF($I$5^B191*$G$7&gt;$H$7,$I$5^B191*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3610,7 +3590,7 @@
       <c r="B192" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="C192" s="54" t="n">
+      <c r="C192" s="49" t="n">
         <f aca="false">IF($I$5^B192*$G$7&gt;$H$7,$I$5^B192*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3619,7 +3599,7 @@
       <c r="B193" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="C193" s="54" t="n">
+      <c r="C193" s="49" t="n">
         <f aca="false">IF($I$5^B193*$G$7&gt;$H$7,$I$5^B193*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3628,7 +3608,7 @@
       <c r="B194" s="0" t="n">
         <v>182</v>
       </c>
-      <c r="C194" s="54" t="n">
+      <c r="C194" s="49" t="n">
         <f aca="false">IF($I$5^B194*$G$7&gt;$H$7,$I$5^B194*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3637,7 +3617,7 @@
       <c r="B195" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="C195" s="54" t="n">
+      <c r="C195" s="49" t="n">
         <f aca="false">IF($I$5^B195*$G$7&gt;$H$7,$I$5^B195*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3646,7 +3626,7 @@
       <c r="B196" s="0" t="n">
         <v>184</v>
       </c>
-      <c r="C196" s="54" t="n">
+      <c r="C196" s="49" t="n">
         <f aca="false">IF($I$5^B196*$G$7&gt;$H$7,$I$5^B196*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3655,7 +3635,7 @@
       <c r="B197" s="0" t="n">
         <v>185</v>
       </c>
-      <c r="C197" s="54" t="n">
+      <c r="C197" s="49" t="n">
         <f aca="false">IF($I$5^B197*$G$7&gt;$H$7,$I$5^B197*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3664,7 +3644,7 @@
       <c r="B198" s="0" t="n">
         <v>186</v>
       </c>
-      <c r="C198" s="54" t="n">
+      <c r="C198" s="49" t="n">
         <f aca="false">IF($I$5^B198*$G$7&gt;$H$7,$I$5^B198*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3673,7 +3653,7 @@
       <c r="B199" s="0" t="n">
         <v>187</v>
       </c>
-      <c r="C199" s="54" t="n">
+      <c r="C199" s="49" t="n">
         <f aca="false">IF($I$5^B199*$G$7&gt;$H$7,$I$5^B199*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3682,7 +3662,7 @@
       <c r="B200" s="0" t="n">
         <v>188</v>
       </c>
-      <c r="C200" s="54" t="n">
+      <c r="C200" s="49" t="n">
         <f aca="false">IF($I$5^B200*$G$7&gt;$H$7,$I$5^B200*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3691,7 +3671,7 @@
       <c r="B201" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="C201" s="54" t="n">
+      <c r="C201" s="49" t="n">
         <f aca="false">IF($I$5^B201*$G$7&gt;$H$7,$I$5^B201*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3700,7 +3680,7 @@
       <c r="B202" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="C202" s="54" t="n">
+      <c r="C202" s="49" t="n">
         <f aca="false">IF($I$5^B202*$G$7&gt;$H$7,$I$5^B202*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3709,7 +3689,7 @@
       <c r="B203" s="0" t="n">
         <v>191</v>
       </c>
-      <c r="C203" s="54" t="n">
+      <c r="C203" s="49" t="n">
         <f aca="false">IF($I$5^B203*$G$7&gt;$H$7,$I$5^B203*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3718,7 +3698,7 @@
       <c r="B204" s="0" t="n">
         <v>192</v>
       </c>
-      <c r="C204" s="54" t="n">
+      <c r="C204" s="49" t="n">
         <f aca="false">IF($I$5^B204*$G$7&gt;$H$7,$I$5^B204*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3727,7 +3707,7 @@
       <c r="B205" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="C205" s="54" t="n">
+      <c r="C205" s="49" t="n">
         <f aca="false">IF($I$5^B205*$G$7&gt;$H$7,$I$5^B205*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3736,7 +3716,7 @@
       <c r="B206" s="0" t="n">
         <v>194</v>
       </c>
-      <c r="C206" s="54" t="n">
+      <c r="C206" s="49" t="n">
         <f aca="false">IF($I$5^B206*$G$7&gt;$H$7,$I$5^B206*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3745,7 +3725,7 @@
       <c r="B207" s="0" t="n">
         <v>195</v>
       </c>
-      <c r="C207" s="54" t="n">
+      <c r="C207" s="49" t="n">
         <f aca="false">IF($I$5^B207*$G$7&gt;$H$7,$I$5^B207*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3754,7 +3734,7 @@
       <c r="B208" s="0" t="n">
         <v>196</v>
       </c>
-      <c r="C208" s="54" t="n">
+      <c r="C208" s="49" t="n">
         <f aca="false">IF($I$5^B208*$G$7&gt;$H$7,$I$5^B208*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3763,7 +3743,7 @@
       <c r="B209" s="0" t="n">
         <v>197</v>
       </c>
-      <c r="C209" s="54" t="n">
+      <c r="C209" s="49" t="n">
         <f aca="false">IF($I$5^B209*$G$7&gt;$H$7,$I$5^B209*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3772,7 +3752,7 @@
       <c r="B210" s="0" t="n">
         <v>198</v>
       </c>
-      <c r="C210" s="54" t="n">
+      <c r="C210" s="49" t="n">
         <f aca="false">IF($I$5^B210*$G$7&gt;$H$7,$I$5^B210*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3781,7 +3761,7 @@
       <c r="B211" s="0" t="n">
         <v>199</v>
       </c>
-      <c r="C211" s="54" t="n">
+      <c r="C211" s="49" t="n">
         <f aca="false">IF($I$5^B211*$G$7&gt;$H$7,$I$5^B211*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3790,7 +3770,7 @@
       <c r="B212" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="C212" s="54" t="n">
+      <c r="C212" s="49" t="n">
         <f aca="false">IF($I$5^B212*$G$7&gt;$H$7,$I$5^B212*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3799,7 +3779,7 @@
       <c r="B213" s="0" t="n">
         <v>201</v>
       </c>
-      <c r="C213" s="54" t="n">
+      <c r="C213" s="49" t="n">
         <f aca="false">IF($I$5^B213*$G$7&gt;$H$7,$I$5^B213*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3808,7 +3788,7 @@
       <c r="B214" s="0" t="n">
         <v>202</v>
       </c>
-      <c r="C214" s="54" t="n">
+      <c r="C214" s="49" t="n">
         <f aca="false">IF($I$5^B214*$G$7&gt;$H$7,$I$5^B214*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3817,7 +3797,7 @@
       <c r="B215" s="0" t="n">
         <v>203</v>
       </c>
-      <c r="C215" s="54" t="n">
+      <c r="C215" s="49" t="n">
         <f aca="false">IF($I$5^B215*$G$7&gt;$H$7,$I$5^B215*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3826,7 +3806,7 @@
       <c r="B216" s="0" t="n">
         <v>204</v>
       </c>
-      <c r="C216" s="54" t="n">
+      <c r="C216" s="49" t="n">
         <f aca="false">IF($I$5^B216*$G$7&gt;$H$7,$I$5^B216*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3835,7 +3815,7 @@
       <c r="B217" s="0" t="n">
         <v>205</v>
       </c>
-      <c r="C217" s="54" t="n">
+      <c r="C217" s="49" t="n">
         <f aca="false">IF($I$5^B217*$G$7&gt;$H$7,$I$5^B217*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3844,7 +3824,7 @@
       <c r="B218" s="0" t="n">
         <v>206</v>
       </c>
-      <c r="C218" s="54" t="n">
+      <c r="C218" s="49" t="n">
         <f aca="false">IF($I$5^B218*$G$7&gt;$H$7,$I$5^B218*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3853,7 +3833,7 @@
       <c r="B219" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="C219" s="54" t="n">
+      <c r="C219" s="49" t="n">
         <f aca="false">IF($I$5^B219*$G$7&gt;$H$7,$I$5^B219*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3862,7 +3842,7 @@
       <c r="B220" s="0" t="n">
         <v>208</v>
       </c>
-      <c r="C220" s="54" t="n">
+      <c r="C220" s="49" t="n">
         <f aca="false">IF($I$5^B220*$G$7&gt;$H$7,$I$5^B220*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3871,7 +3851,7 @@
       <c r="B221" s="0" t="n">
         <v>209</v>
       </c>
-      <c r="C221" s="54" t="n">
+      <c r="C221" s="49" t="n">
         <f aca="false">IF($I$5^B221*$G$7&gt;$H$7,$I$5^B221*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3880,7 +3860,7 @@
       <c r="B222" s="0" t="n">
         <v>210</v>
       </c>
-      <c r="C222" s="54" t="n">
+      <c r="C222" s="49" t="n">
         <f aca="false">IF($I$5^B222*$G$7&gt;$H$7,$I$5^B222*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3889,7 +3869,7 @@
       <c r="B223" s="0" t="n">
         <v>211</v>
       </c>
-      <c r="C223" s="54" t="n">
+      <c r="C223" s="49" t="n">
         <f aca="false">IF($I$5^B223*$G$7&gt;$H$7,$I$5^B223*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3898,7 +3878,7 @@
       <c r="B224" s="0" t="n">
         <v>212</v>
       </c>
-      <c r="C224" s="54" t="n">
+      <c r="C224" s="49" t="n">
         <f aca="false">IF($I$5^B224*$G$7&gt;$H$7,$I$5^B224*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3907,7 +3887,7 @@
       <c r="B225" s="0" t="n">
         <v>213</v>
       </c>
-      <c r="C225" s="54" t="n">
+      <c r="C225" s="49" t="n">
         <f aca="false">IF($I$5^B225*$G$7&gt;$H$7,$I$5^B225*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3916,7 +3896,7 @@
       <c r="B226" s="0" t="n">
         <v>214</v>
       </c>
-      <c r="C226" s="54" t="n">
+      <c r="C226" s="49" t="n">
         <f aca="false">IF($I$5^B226*$G$7&gt;$H$7,$I$5^B226*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3925,7 +3905,7 @@
       <c r="B227" s="0" t="n">
         <v>215</v>
       </c>
-      <c r="C227" s="54" t="n">
+      <c r="C227" s="49" t="n">
         <f aca="false">IF($I$5^B227*$G$7&gt;$H$7,$I$5^B227*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3934,7 +3914,7 @@
       <c r="B228" s="0" t="n">
         <v>216</v>
       </c>
-      <c r="C228" s="54" t="n">
+      <c r="C228" s="49" t="n">
         <f aca="false">IF($I$5^B228*$G$7&gt;$H$7,$I$5^B228*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3943,7 +3923,7 @@
       <c r="B229" s="0" t="n">
         <v>217</v>
       </c>
-      <c r="C229" s="54" t="n">
+      <c r="C229" s="49" t="n">
         <f aca="false">IF($I$5^B229*$G$7&gt;$H$7,$I$5^B229*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3952,7 +3932,7 @@
       <c r="B230" s="0" t="n">
         <v>218</v>
       </c>
-      <c r="C230" s="54" t="n">
+      <c r="C230" s="49" t="n">
         <f aca="false">IF($I$5^B230*$G$7&gt;$H$7,$I$5^B230*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3961,7 +3941,7 @@
       <c r="B231" s="0" t="n">
         <v>219</v>
       </c>
-      <c r="C231" s="54" t="n">
+      <c r="C231" s="49" t="n">
         <f aca="false">IF($I$5^B231*$G$7&gt;$H$7,$I$5^B231*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3970,7 +3950,7 @@
       <c r="B232" s="0" t="n">
         <v>220</v>
       </c>
-      <c r="C232" s="54" t="n">
+      <c r="C232" s="49" t="n">
         <f aca="false">IF($I$5^B232*$G$7&gt;$H$7,$I$5^B232*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3979,7 +3959,7 @@
       <c r="B233" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="C233" s="54" t="n">
+      <c r="C233" s="49" t="n">
         <f aca="false">IF($I$5^B233*$G$7&gt;$H$7,$I$5^B233*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3988,7 +3968,7 @@
       <c r="B234" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="C234" s="54" t="n">
+      <c r="C234" s="49" t="n">
         <f aca="false">IF($I$5^B234*$G$7&gt;$H$7,$I$5^B234*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -3997,7 +3977,7 @@
       <c r="B235" s="0" t="n">
         <v>223</v>
       </c>
-      <c r="C235" s="54" t="n">
+      <c r="C235" s="49" t="n">
         <f aca="false">IF($I$5^B235*$G$7&gt;$H$7,$I$5^B235*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4006,7 +3986,7 @@
       <c r="B236" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="C236" s="54" t="n">
+      <c r="C236" s="49" t="n">
         <f aca="false">IF($I$5^B236*$G$7&gt;$H$7,$I$5^B236*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4015,7 +3995,7 @@
       <c r="B237" s="0" t="n">
         <v>225</v>
       </c>
-      <c r="C237" s="54" t="n">
+      <c r="C237" s="49" t="n">
         <f aca="false">IF($I$5^B237*$G$7&gt;$H$7,$I$5^B237*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4024,7 +4004,7 @@
       <c r="B238" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="C238" s="54" t="n">
+      <c r="C238" s="49" t="n">
         <f aca="false">IF($I$5^B238*$G$7&gt;$H$7,$I$5^B238*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4033,7 +4013,7 @@
       <c r="B239" s="0" t="n">
         <v>227</v>
       </c>
-      <c r="C239" s="54" t="n">
+      <c r="C239" s="49" t="n">
         <f aca="false">IF($I$5^B239*$G$7&gt;$H$7,$I$5^B239*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4042,7 +4022,7 @@
       <c r="B240" s="0" t="n">
         <v>228</v>
       </c>
-      <c r="C240" s="54" t="n">
+      <c r="C240" s="49" t="n">
         <f aca="false">IF($I$5^B240*$G$7&gt;$H$7,$I$5^B240*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4051,7 +4031,7 @@
       <c r="B241" s="0" t="n">
         <v>229</v>
       </c>
-      <c r="C241" s="54" t="n">
+      <c r="C241" s="49" t="n">
         <f aca="false">IF($I$5^B241*$G$7&gt;$H$7,$I$5^B241*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4060,7 +4040,7 @@
       <c r="B242" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="C242" s="54" t="n">
+      <c r="C242" s="49" t="n">
         <f aca="false">IF($I$5^B242*$G$7&gt;$H$7,$I$5^B242*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4069,7 +4049,7 @@
       <c r="B243" s="0" t="n">
         <v>231</v>
       </c>
-      <c r="C243" s="54" t="n">
+      <c r="C243" s="49" t="n">
         <f aca="false">IF($I$5^B243*$G$7&gt;$H$7,$I$5^B243*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4078,7 +4058,7 @@
       <c r="B244" s="0" t="n">
         <v>232</v>
       </c>
-      <c r="C244" s="54" t="n">
+      <c r="C244" s="49" t="n">
         <f aca="false">IF($I$5^B244*$G$7&gt;$H$7,$I$5^B244*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4087,7 +4067,7 @@
       <c r="B245" s="0" t="n">
         <v>233</v>
       </c>
-      <c r="C245" s="54" t="n">
+      <c r="C245" s="49" t="n">
         <f aca="false">IF($I$5^B245*$G$7&gt;$H$7,$I$5^B245*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4096,7 +4076,7 @@
       <c r="B246" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="C246" s="54" t="n">
+      <c r="C246" s="49" t="n">
         <f aca="false">IF($I$5^B246*$G$7&gt;$H$7,$I$5^B246*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4105,7 +4085,7 @@
       <c r="B247" s="0" t="n">
         <v>235</v>
       </c>
-      <c r="C247" s="54" t="n">
+      <c r="C247" s="49" t="n">
         <f aca="false">IF($I$5^B247*$G$7&gt;$H$7,$I$5^B247*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4114,7 +4094,7 @@
       <c r="B248" s="0" t="n">
         <v>236</v>
       </c>
-      <c r="C248" s="54" t="n">
+      <c r="C248" s="49" t="n">
         <f aca="false">IF($I$5^B248*$G$7&gt;$H$7,$I$5^B248*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4123,7 +4103,7 @@
       <c r="B249" s="0" t="n">
         <v>237</v>
       </c>
-      <c r="C249" s="54" t="n">
+      <c r="C249" s="49" t="n">
         <f aca="false">IF($I$5^B249*$G$7&gt;$H$7,$I$5^B249*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4132,7 +4112,7 @@
       <c r="B250" s="0" t="n">
         <v>238</v>
       </c>
-      <c r="C250" s="54" t="n">
+      <c r="C250" s="49" t="n">
         <f aca="false">IF($I$5^B250*$G$7&gt;$H$7,$I$5^B250*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4141,7 +4121,7 @@
       <c r="B251" s="0" t="n">
         <v>239</v>
       </c>
-      <c r="C251" s="54" t="n">
+      <c r="C251" s="49" t="n">
         <f aca="false">IF($I$5^B251*$G$7&gt;$H$7,$I$5^B251*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4150,7 +4130,7 @@
       <c r="B252" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="C252" s="54" t="n">
+      <c r="C252" s="49" t="n">
         <f aca="false">IF($I$5^B252*$G$7&gt;$H$7,$I$5^B252*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4159,7 +4139,7 @@
       <c r="B253" s="0" t="n">
         <v>241</v>
       </c>
-      <c r="C253" s="54" t="n">
+      <c r="C253" s="49" t="n">
         <f aca="false">IF($I$5^B253*$G$7&gt;$H$7,$I$5^B253*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4168,7 +4148,7 @@
       <c r="B254" s="0" t="n">
         <v>242</v>
       </c>
-      <c r="C254" s="54" t="n">
+      <c r="C254" s="49" t="n">
         <f aca="false">IF($I$5^B254*$G$7&gt;$H$7,$I$5^B254*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4177,7 +4157,7 @@
       <c r="B255" s="0" t="n">
         <v>243</v>
       </c>
-      <c r="C255" s="54" t="n">
+      <c r="C255" s="49" t="n">
         <f aca="false">IF($I$5^B255*$G$7&gt;$H$7,$I$5^B255*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4186,7 +4166,7 @@
       <c r="B256" s="0" t="n">
         <v>244</v>
       </c>
-      <c r="C256" s="54" t="n">
+      <c r="C256" s="49" t="n">
         <f aca="false">IF($I$5^B256*$G$7&gt;$H$7,$I$5^B256*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4195,7 +4175,7 @@
       <c r="B257" s="0" t="n">
         <v>245</v>
       </c>
-      <c r="C257" s="54" t="n">
+      <c r="C257" s="49" t="n">
         <f aca="false">IF($I$5^B257*$G$7&gt;$H$7,$I$5^B257*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4204,7 +4184,7 @@
       <c r="B258" s="0" t="n">
         <v>246</v>
       </c>
-      <c r="C258" s="54" t="n">
+      <c r="C258" s="49" t="n">
         <f aca="false">IF($I$5^B258*$G$7&gt;$H$7,$I$5^B258*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4213,7 +4193,7 @@
       <c r="B259" s="0" t="n">
         <v>247</v>
       </c>
-      <c r="C259" s="54" t="n">
+      <c r="C259" s="49" t="n">
         <f aca="false">IF($I$5^B259*$G$7&gt;$H$7,$I$5^B259*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4222,7 +4202,7 @@
       <c r="B260" s="0" t="n">
         <v>248</v>
       </c>
-      <c r="C260" s="54" t="n">
+      <c r="C260" s="49" t="n">
         <f aca="false">IF($I$5^B260*$G$7&gt;$H$7,$I$5^B260*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4231,7 +4211,7 @@
       <c r="B261" s="0" t="n">
         <v>249</v>
       </c>
-      <c r="C261" s="54" t="n">
+      <c r="C261" s="49" t="n">
         <f aca="false">IF($I$5^B261*$G$7&gt;$H$7,$I$5^B261*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4240,7 +4220,7 @@
       <c r="B262" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="C262" s="54" t="n">
+      <c r="C262" s="49" t="n">
         <f aca="false">IF($I$5^B262*$G$7&gt;$H$7,$I$5^B262*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4249,7 +4229,7 @@
       <c r="B263" s="0" t="n">
         <v>251</v>
       </c>
-      <c r="C263" s="54" t="n">
+      <c r="C263" s="49" t="n">
         <f aca="false">IF($I$5^B263*$G$7&gt;$H$7,$I$5^B263*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4258,7 +4238,7 @@
       <c r="B264" s="0" t="n">
         <v>252</v>
       </c>
-      <c r="C264" s="54" t="n">
+      <c r="C264" s="49" t="n">
         <f aca="false">IF($I$5^B264*$G$7&gt;$H$7,$I$5^B264*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4267,7 +4247,7 @@
       <c r="B265" s="0" t="n">
         <v>253</v>
       </c>
-      <c r="C265" s="54" t="n">
+      <c r="C265" s="49" t="n">
         <f aca="false">IF($I$5^B265*$G$7&gt;$H$7,$I$5^B265*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4276,7 +4256,7 @@
       <c r="B266" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="C266" s="54" t="n">
+      <c r="C266" s="49" t="n">
         <f aca="false">IF($I$5^B266*$G$7&gt;$H$7,$I$5^B266*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4285,7 +4265,7 @@
       <c r="B267" s="0" t="n">
         <v>255</v>
       </c>
-      <c r="C267" s="54" t="n">
+      <c r="C267" s="49" t="n">
         <f aca="false">IF($I$5^B267*$G$7&gt;$H$7,$I$5^B267*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4294,7 +4274,7 @@
       <c r="B268" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="C268" s="54" t="n">
+      <c r="C268" s="49" t="n">
         <f aca="false">IF($I$5^B268*$G$7&gt;$H$7,$I$5^B268*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4303,7 +4283,7 @@
       <c r="B269" s="0" t="n">
         <v>257</v>
       </c>
-      <c r="C269" s="54" t="n">
+      <c r="C269" s="49" t="n">
         <f aca="false">IF($I$5^B269*$G$7&gt;$H$7,$I$5^B269*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4312,7 +4292,7 @@
       <c r="B270" s="0" t="n">
         <v>258</v>
       </c>
-      <c r="C270" s="54" t="n">
+      <c r="C270" s="49" t="n">
         <f aca="false">IF($I$5^B270*$G$7&gt;$H$7,$I$5^B270*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4321,7 +4301,7 @@
       <c r="B271" s="0" t="n">
         <v>259</v>
       </c>
-      <c r="C271" s="54" t="n">
+      <c r="C271" s="49" t="n">
         <f aca="false">IF($I$5^B271*$G$7&gt;$H$7,$I$5^B271*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4330,7 +4310,7 @@
       <c r="B272" s="0" t="n">
         <v>260</v>
       </c>
-      <c r="C272" s="54" t="n">
+      <c r="C272" s="49" t="n">
         <f aca="false">IF($I$5^B272*$G$7&gt;$H$7,$I$5^B272*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4339,7 +4319,7 @@
       <c r="B273" s="0" t="n">
         <v>261</v>
       </c>
-      <c r="C273" s="54" t="n">
+      <c r="C273" s="49" t="n">
         <f aca="false">IF($I$5^B273*$G$7&gt;$H$7,$I$5^B273*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4348,7 +4328,7 @@
       <c r="B274" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="C274" s="54" t="n">
+      <c r="C274" s="49" t="n">
         <f aca="false">IF($I$5^B274*$G$7&gt;$H$7,$I$5^B274*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4357,7 +4337,7 @@
       <c r="B275" s="0" t="n">
         <v>263</v>
       </c>
-      <c r="C275" s="54" t="n">
+      <c r="C275" s="49" t="n">
         <f aca="false">IF($I$5^B275*$G$7&gt;$H$7,$I$5^B275*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4366,7 +4346,7 @@
       <c r="B276" s="0" t="n">
         <v>264</v>
       </c>
-      <c r="C276" s="54" t="n">
+      <c r="C276" s="49" t="n">
         <f aca="false">IF($I$5^B276*$G$7&gt;$H$7,$I$5^B276*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4375,7 +4355,7 @@
       <c r="B277" s="0" t="n">
         <v>265</v>
       </c>
-      <c r="C277" s="54" t="n">
+      <c r="C277" s="49" t="n">
         <f aca="false">IF($I$5^B277*$G$7&gt;$H$7,$I$5^B277*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4384,7 +4364,7 @@
       <c r="B278" s="0" t="n">
         <v>266</v>
       </c>
-      <c r="C278" s="54" t="n">
+      <c r="C278" s="49" t="n">
         <f aca="false">IF($I$5^B278*$G$7&gt;$H$7,$I$5^B278*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4393,7 +4373,7 @@
       <c r="B279" s="0" t="n">
         <v>267</v>
       </c>
-      <c r="C279" s="54" t="n">
+      <c r="C279" s="49" t="n">
         <f aca="false">IF($I$5^B279*$G$7&gt;$H$7,$I$5^B279*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4402,7 +4382,7 @@
       <c r="B280" s="0" t="n">
         <v>268</v>
       </c>
-      <c r="C280" s="54" t="n">
+      <c r="C280" s="49" t="n">
         <f aca="false">IF($I$5^B280*$G$7&gt;$H$7,$I$5^B280*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4411,7 +4391,7 @@
       <c r="B281" s="0" t="n">
         <v>269</v>
       </c>
-      <c r="C281" s="54" t="n">
+      <c r="C281" s="49" t="n">
         <f aca="false">IF($I$5^B281*$G$7&gt;$H$7,$I$5^B281*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4420,7 +4400,7 @@
       <c r="B282" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="C282" s="54" t="n">
+      <c r="C282" s="49" t="n">
         <f aca="false">IF($I$5^B282*$G$7&gt;$H$7,$I$5^B282*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4429,7 +4409,7 @@
       <c r="B283" s="0" t="n">
         <v>271</v>
       </c>
-      <c r="C283" s="54" t="n">
+      <c r="C283" s="49" t="n">
         <f aca="false">IF($I$5^B283*$G$7&gt;$H$7,$I$5^B283*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4438,7 +4418,7 @@
       <c r="B284" s="0" t="n">
         <v>272</v>
       </c>
-      <c r="C284" s="54" t="n">
+      <c r="C284" s="49" t="n">
         <f aca="false">IF($I$5^B284*$G$7&gt;$H$7,$I$5^B284*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4447,7 +4427,7 @@
       <c r="B285" s="0" t="n">
         <v>273</v>
       </c>
-      <c r="C285" s="54" t="n">
+      <c r="C285" s="49" t="n">
         <f aca="false">IF($I$5^B285*$G$7&gt;$H$7,$I$5^B285*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4456,7 +4436,7 @@
       <c r="B286" s="0" t="n">
         <v>274</v>
       </c>
-      <c r="C286" s="54" t="n">
+      <c r="C286" s="49" t="n">
         <f aca="false">IF($I$5^B286*$G$7&gt;$H$7,$I$5^B286*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4465,7 +4445,7 @@
       <c r="B287" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="C287" s="54" t="n">
+      <c r="C287" s="49" t="n">
         <f aca="false">IF($I$5^B287*$G$7&gt;$H$7,$I$5^B287*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4474,7 +4454,7 @@
       <c r="B288" s="0" t="n">
         <v>276</v>
       </c>
-      <c r="C288" s="54" t="n">
+      <c r="C288" s="49" t="n">
         <f aca="false">IF($I$5^B288*$G$7&gt;$H$7,$I$5^B288*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4483,7 +4463,7 @@
       <c r="B289" s="0" t="n">
         <v>277</v>
       </c>
-      <c r="C289" s="54" t="n">
+      <c r="C289" s="49" t="n">
         <f aca="false">IF($I$5^B289*$G$7&gt;$H$7,$I$5^B289*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4492,7 +4472,7 @@
       <c r="B290" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="C290" s="54" t="n">
+      <c r="C290" s="49" t="n">
         <f aca="false">IF($I$5^B290*$G$7&gt;$H$7,$I$5^B290*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4501,7 +4481,7 @@
       <c r="B291" s="0" t="n">
         <v>279</v>
       </c>
-      <c r="C291" s="54" t="n">
+      <c r="C291" s="49" t="n">
         <f aca="false">IF($I$5^B291*$G$7&gt;$H$7,$I$5^B291*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4510,7 +4490,7 @@
       <c r="B292" s="0" t="n">
         <v>280</v>
       </c>
-      <c r="C292" s="54" t="n">
+      <c r="C292" s="49" t="n">
         <f aca="false">IF($I$5^B292*$G$7&gt;$H$7,$I$5^B292*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4519,7 +4499,7 @@
       <c r="B293" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="C293" s="54" t="n">
+      <c r="C293" s="49" t="n">
         <f aca="false">IF($I$5^B293*$G$7&gt;$H$7,$I$5^B293*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4528,7 +4508,7 @@
       <c r="B294" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="C294" s="54" t="n">
+      <c r="C294" s="49" t="n">
         <f aca="false">IF($I$5^B294*$G$7&gt;$H$7,$I$5^B294*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4537,7 +4517,7 @@
       <c r="B295" s="0" t="n">
         <v>283</v>
       </c>
-      <c r="C295" s="54" t="n">
+      <c r="C295" s="49" t="n">
         <f aca="false">IF($I$5^B295*$G$7&gt;$H$7,$I$5^B295*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4546,7 +4526,7 @@
       <c r="B296" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="C296" s="54" t="n">
+      <c r="C296" s="49" t="n">
         <f aca="false">IF($I$5^B296*$G$7&gt;$H$7,$I$5^B296*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4555,7 +4535,7 @@
       <c r="B297" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="C297" s="54" t="n">
+      <c r="C297" s="49" t="n">
         <f aca="false">IF($I$5^B297*$G$7&gt;$H$7,$I$5^B297*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4564,7 +4544,7 @@
       <c r="B298" s="0" t="n">
         <v>286</v>
       </c>
-      <c r="C298" s="54" t="n">
+      <c r="C298" s="49" t="n">
         <f aca="false">IF($I$5^B298*$G$7&gt;$H$7,$I$5^B298*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4573,7 +4553,7 @@
       <c r="B299" s="0" t="n">
         <v>287</v>
       </c>
-      <c r="C299" s="54" t="n">
+      <c r="C299" s="49" t="n">
         <f aca="false">IF($I$5^B299*$G$7&gt;$H$7,$I$5^B299*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4582,7 +4562,7 @@
       <c r="B300" s="0" t="n">
         <v>288</v>
       </c>
-      <c r="C300" s="54" t="n">
+      <c r="C300" s="49" t="n">
         <f aca="false">IF($I$5^B300*$G$7&gt;$H$7,$I$5^B300*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4591,7 +4571,7 @@
       <c r="B301" s="0" t="n">
         <v>289</v>
       </c>
-      <c r="C301" s="54" t="n">
+      <c r="C301" s="49" t="n">
         <f aca="false">IF($I$5^B301*$G$7&gt;$H$7,$I$5^B301*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4600,7 +4580,7 @@
       <c r="B302" s="0" t="n">
         <v>290</v>
       </c>
-      <c r="C302" s="54" t="n">
+      <c r="C302" s="49" t="n">
         <f aca="false">IF($I$5^B302*$G$7&gt;$H$7,$I$5^B302*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4609,7 +4589,7 @@
       <c r="B303" s="0" t="n">
         <v>291</v>
       </c>
-      <c r="C303" s="54" t="n">
+      <c r="C303" s="49" t="n">
         <f aca="false">IF($I$5^B303*$G$7&gt;$H$7,$I$5^B303*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4618,7 +4598,7 @@
       <c r="B304" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="C304" s="54" t="n">
+      <c r="C304" s="49" t="n">
         <f aca="false">IF($I$5^B304*$G$7&gt;$H$7,$I$5^B304*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4627,7 +4607,7 @@
       <c r="B305" s="0" t="n">
         <v>293</v>
       </c>
-      <c r="C305" s="54" t="n">
+      <c r="C305" s="49" t="n">
         <f aca="false">IF($I$5^B305*$G$7&gt;$H$7,$I$5^B305*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4636,7 +4616,7 @@
       <c r="B306" s="0" t="n">
         <v>294</v>
       </c>
-      <c r="C306" s="54" t="n">
+      <c r="C306" s="49" t="n">
         <f aca="false">IF($I$5^B306*$G$7&gt;$H$7,$I$5^B306*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4645,7 +4625,7 @@
       <c r="B307" s="0" t="n">
         <v>295</v>
       </c>
-      <c r="C307" s="54" t="n">
+      <c r="C307" s="49" t="n">
         <f aca="false">IF($I$5^B307*$G$7&gt;$H$7,$I$5^B307*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4654,7 +4634,7 @@
       <c r="B308" s="0" t="n">
         <v>296</v>
       </c>
-      <c r="C308" s="54" t="n">
+      <c r="C308" s="49" t="n">
         <f aca="false">IF($I$5^B308*$G$7&gt;$H$7,$I$5^B308*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4663,7 +4643,7 @@
       <c r="B309" s="0" t="n">
         <v>297</v>
       </c>
-      <c r="C309" s="54" t="n">
+      <c r="C309" s="49" t="n">
         <f aca="false">IF($I$5^B309*$G$7&gt;$H$7,$I$5^B309*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4672,7 +4652,7 @@
       <c r="B310" s="0" t="n">
         <v>298</v>
       </c>
-      <c r="C310" s="54" t="n">
+      <c r="C310" s="49" t="n">
         <f aca="false">IF($I$5^B310*$G$7&gt;$H$7,$I$5^B310*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4681,7 +4661,7 @@
       <c r="B311" s="0" t="n">
         <v>299</v>
       </c>
-      <c r="C311" s="54" t="n">
+      <c r="C311" s="49" t="n">
         <f aca="false">IF($I$5^B311*$G$7&gt;$H$7,$I$5^B311*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4690,7 +4670,7 @@
       <c r="B312" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="C312" s="54" t="n">
+      <c r="C312" s="49" t="n">
         <f aca="false">IF($I$5^B312*$G$7&gt;$H$7,$I$5^B312*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4699,7 +4679,7 @@
       <c r="B313" s="0" t="n">
         <v>301</v>
       </c>
-      <c r="C313" s="54" t="n">
+      <c r="C313" s="49" t="n">
         <f aca="false">IF($I$5^B313*$G$7&gt;$H$7,$I$5^B313*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4708,7 +4688,7 @@
       <c r="B314" s="0" t="n">
         <v>302</v>
       </c>
-      <c r="C314" s="54" t="n">
+      <c r="C314" s="49" t="n">
         <f aca="false">IF($I$5^B314*$G$7&gt;$H$7,$I$5^B314*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4717,7 +4697,7 @@
       <c r="B315" s="0" t="n">
         <v>303</v>
       </c>
-      <c r="C315" s="54" t="n">
+      <c r="C315" s="49" t="n">
         <f aca="false">IF($I$5^B315*$G$7&gt;$H$7,$I$5^B315*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4726,7 +4706,7 @@
       <c r="B316" s="0" t="n">
         <v>304</v>
       </c>
-      <c r="C316" s="54" t="n">
+      <c r="C316" s="49" t="n">
         <f aca="false">IF($I$5^B316*$G$7&gt;$H$7,$I$5^B316*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4735,7 +4715,7 @@
       <c r="B317" s="0" t="n">
         <v>305</v>
       </c>
-      <c r="C317" s="54" t="n">
+      <c r="C317" s="49" t="n">
         <f aca="false">IF($I$5^B317*$G$7&gt;$H$7,$I$5^B317*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4744,7 +4724,7 @@
       <c r="B318" s="0" t="n">
         <v>306</v>
       </c>
-      <c r="C318" s="54" t="n">
+      <c r="C318" s="49" t="n">
         <f aca="false">IF($I$5^B318*$G$7&gt;$H$7,$I$5^B318*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4753,7 +4733,7 @@
       <c r="B319" s="0" t="n">
         <v>307</v>
       </c>
-      <c r="C319" s="54" t="n">
+      <c r="C319" s="49" t="n">
         <f aca="false">IF($I$5^B319*$G$7&gt;$H$7,$I$5^B319*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4762,7 +4742,7 @@
       <c r="B320" s="0" t="n">
         <v>308</v>
       </c>
-      <c r="C320" s="54" t="n">
+      <c r="C320" s="49" t="n">
         <f aca="false">IF($I$5^B320*$G$7&gt;$H$7,$I$5^B320*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4771,7 +4751,7 @@
       <c r="B321" s="0" t="n">
         <v>309</v>
       </c>
-      <c r="C321" s="54" t="n">
+      <c r="C321" s="49" t="n">
         <f aca="false">IF($I$5^B321*$G$7&gt;$H$7,$I$5^B321*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4780,7 +4760,7 @@
       <c r="B322" s="0" t="n">
         <v>310</v>
       </c>
-      <c r="C322" s="54" t="n">
+      <c r="C322" s="49" t="n">
         <f aca="false">IF($I$5^B322*$G$7&gt;$H$7,$I$5^B322*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4789,7 +4769,7 @@
       <c r="B323" s="0" t="n">
         <v>311</v>
       </c>
-      <c r="C323" s="54" t="n">
+      <c r="C323" s="49" t="n">
         <f aca="false">IF($I$5^B323*$G$7&gt;$H$7,$I$5^B323*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4798,7 +4778,7 @@
       <c r="B324" s="0" t="n">
         <v>312</v>
       </c>
-      <c r="C324" s="54" t="n">
+      <c r="C324" s="49" t="n">
         <f aca="false">IF($I$5^B324*$G$7&gt;$H$7,$I$5^B324*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4807,7 +4787,7 @@
       <c r="B325" s="0" t="n">
         <v>313</v>
       </c>
-      <c r="C325" s="54" t="n">
+      <c r="C325" s="49" t="n">
         <f aca="false">IF($I$5^B325*$G$7&gt;$H$7,$I$5^B325*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4816,7 +4796,7 @@
       <c r="B326" s="0" t="n">
         <v>314</v>
       </c>
-      <c r="C326" s="54" t="n">
+      <c r="C326" s="49" t="n">
         <f aca="false">IF($I$5^B326*$G$7&gt;$H$7,$I$5^B326*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4825,7 +4805,7 @@
       <c r="B327" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="C327" s="54" t="n">
+      <c r="C327" s="49" t="n">
         <f aca="false">IF($I$5^B327*$G$7&gt;$H$7,$I$5^B327*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4834,7 +4814,7 @@
       <c r="B328" s="0" t="n">
         <v>316</v>
       </c>
-      <c r="C328" s="54" t="n">
+      <c r="C328" s="49" t="n">
         <f aca="false">IF($I$5^B328*$G$7&gt;$H$7,$I$5^B328*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4843,7 +4823,7 @@
       <c r="B329" s="0" t="n">
         <v>317</v>
       </c>
-      <c r="C329" s="54" t="n">
+      <c r="C329" s="49" t="n">
         <f aca="false">IF($I$5^B329*$G$7&gt;$H$7,$I$5^B329*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4852,7 +4832,7 @@
       <c r="B330" s="0" t="n">
         <v>318</v>
       </c>
-      <c r="C330" s="54" t="n">
+      <c r="C330" s="49" t="n">
         <f aca="false">IF($I$5^B330*$G$7&gt;$H$7,$I$5^B330*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4861,7 +4841,7 @@
       <c r="B331" s="0" t="n">
         <v>319</v>
       </c>
-      <c r="C331" s="54" t="n">
+      <c r="C331" s="49" t="n">
         <f aca="false">IF($I$5^B331*$G$7&gt;$H$7,$I$5^B331*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4870,7 +4850,7 @@
       <c r="B332" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="C332" s="54" t="n">
+      <c r="C332" s="49" t="n">
         <f aca="false">IF($I$5^B332*$G$7&gt;$H$7,$I$5^B332*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4879,7 +4859,7 @@
       <c r="B333" s="0" t="n">
         <v>321</v>
       </c>
-      <c r="C333" s="54" t="n">
+      <c r="C333" s="49" t="n">
         <f aca="false">IF($I$5^B333*$G$7&gt;$H$7,$I$5^B333*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4888,7 +4868,7 @@
       <c r="B334" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="C334" s="54" t="n">
+      <c r="C334" s="49" t="n">
         <f aca="false">IF($I$5^B334*$G$7&gt;$H$7,$I$5^B334*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4897,7 +4877,7 @@
       <c r="B335" s="0" t="n">
         <v>323</v>
       </c>
-      <c r="C335" s="54" t="n">
+      <c r="C335" s="49" t="n">
         <f aca="false">IF($I$5^B335*$G$7&gt;$H$7,$I$5^B335*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4906,7 +4886,7 @@
       <c r="B336" s="0" t="n">
         <v>324</v>
       </c>
-      <c r="C336" s="54" t="n">
+      <c r="C336" s="49" t="n">
         <f aca="false">IF($I$5^B336*$G$7&gt;$H$7,$I$5^B336*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4915,7 +4895,7 @@
       <c r="B337" s="0" t="n">
         <v>325</v>
       </c>
-      <c r="C337" s="54" t="n">
+      <c r="C337" s="49" t="n">
         <f aca="false">IF($I$5^B337*$G$7&gt;$H$7,$I$5^B337*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4924,7 +4904,7 @@
       <c r="B338" s="0" t="n">
         <v>326</v>
       </c>
-      <c r="C338" s="54" t="n">
+      <c r="C338" s="49" t="n">
         <f aca="false">IF($I$5^B338*$G$7&gt;$H$7,$I$5^B338*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4933,7 +4913,7 @@
       <c r="B339" s="0" t="n">
         <v>327</v>
       </c>
-      <c r="C339" s="54" t="n">
+      <c r="C339" s="49" t="n">
         <f aca="false">IF($I$5^B339*$G$7&gt;$H$7,$I$5^B339*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4942,7 +4922,7 @@
       <c r="B340" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="C340" s="54" t="n">
+      <c r="C340" s="49" t="n">
         <f aca="false">IF($I$5^B340*$G$7&gt;$H$7,$I$5^B340*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4951,7 +4931,7 @@
       <c r="B341" s="0" t="n">
         <v>329</v>
       </c>
-      <c r="C341" s="54" t="n">
+      <c r="C341" s="49" t="n">
         <f aca="false">IF($I$5^B341*$G$7&gt;$H$7,$I$5^B341*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4960,7 +4940,7 @@
       <c r="B342" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="C342" s="54" t="n">
+      <c r="C342" s="49" t="n">
         <f aca="false">IF($I$5^B342*$G$7&gt;$H$7,$I$5^B342*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4969,7 +4949,7 @@
       <c r="B343" s="0" t="n">
         <v>331</v>
       </c>
-      <c r="C343" s="54" t="n">
+      <c r="C343" s="49" t="n">
         <f aca="false">IF($I$5^B343*$G$7&gt;$H$7,$I$5^B343*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4978,7 +4958,7 @@
       <c r="B344" s="0" t="n">
         <v>332</v>
       </c>
-      <c r="C344" s="54" t="n">
+      <c r="C344" s="49" t="n">
         <f aca="false">IF($I$5^B344*$G$7&gt;$H$7,$I$5^B344*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4987,7 +4967,7 @@
       <c r="B345" s="0" t="n">
         <v>333</v>
       </c>
-      <c r="C345" s="54" t="n">
+      <c r="C345" s="49" t="n">
         <f aca="false">IF($I$5^B345*$G$7&gt;$H$7,$I$5^B345*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -4996,7 +4976,7 @@
       <c r="B346" s="0" t="n">
         <v>334</v>
       </c>
-      <c r="C346" s="54" t="n">
+      <c r="C346" s="49" t="n">
         <f aca="false">IF($I$5^B346*$G$7&gt;$H$7,$I$5^B346*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5005,7 +4985,7 @@
       <c r="B347" s="0" t="n">
         <v>335</v>
       </c>
-      <c r="C347" s="54" t="n">
+      <c r="C347" s="49" t="n">
         <f aca="false">IF($I$5^B347*$G$7&gt;$H$7,$I$5^B347*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5014,7 +4994,7 @@
       <c r="B348" s="0" t="n">
         <v>336</v>
       </c>
-      <c r="C348" s="54" t="n">
+      <c r="C348" s="49" t="n">
         <f aca="false">IF($I$5^B348*$G$7&gt;$H$7,$I$5^B348*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5023,7 +5003,7 @@
       <c r="B349" s="0" t="n">
         <v>337</v>
       </c>
-      <c r="C349" s="54" t="n">
+      <c r="C349" s="49" t="n">
         <f aca="false">IF($I$5^B349*$G$7&gt;$H$7,$I$5^B349*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5032,7 +5012,7 @@
       <c r="B350" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="C350" s="54" t="n">
+      <c r="C350" s="49" t="n">
         <f aca="false">IF($I$5^B350*$G$7&gt;$H$7,$I$5^B350*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5041,7 +5021,7 @@
       <c r="B351" s="0" t="n">
         <v>339</v>
       </c>
-      <c r="C351" s="54" t="n">
+      <c r="C351" s="49" t="n">
         <f aca="false">IF($I$5^B351*$G$7&gt;$H$7,$I$5^B351*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5050,7 +5030,7 @@
       <c r="B352" s="0" t="n">
         <v>340</v>
       </c>
-      <c r="C352" s="54" t="n">
+      <c r="C352" s="49" t="n">
         <f aca="false">IF($I$5^B352*$G$7&gt;$H$7,$I$5^B352*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5059,7 +5039,7 @@
       <c r="B353" s="0" t="n">
         <v>341</v>
       </c>
-      <c r="C353" s="54" t="n">
+      <c r="C353" s="49" t="n">
         <f aca="false">IF($I$5^B353*$G$7&gt;$H$7,$I$5^B353*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5068,7 +5048,7 @@
       <c r="B354" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="C354" s="54" t="n">
+      <c r="C354" s="49" t="n">
         <f aca="false">IF($I$5^B354*$G$7&gt;$H$7,$I$5^B354*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5077,7 +5057,7 @@
       <c r="B355" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="C355" s="54" t="n">
+      <c r="C355" s="49" t="n">
         <f aca="false">IF($I$5^B355*$G$7&gt;$H$7,$I$5^B355*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5086,7 +5066,7 @@
       <c r="B356" s="0" t="n">
         <v>344</v>
       </c>
-      <c r="C356" s="54" t="n">
+      <c r="C356" s="49" t="n">
         <f aca="false">IF($I$5^B356*$G$7&gt;$H$7,$I$5^B356*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5095,7 +5075,7 @@
       <c r="B357" s="0" t="n">
         <v>345</v>
       </c>
-      <c r="C357" s="54" t="n">
+      <c r="C357" s="49" t="n">
         <f aca="false">IF($I$5^B357*$G$7&gt;$H$7,$I$5^B357*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5104,7 +5084,7 @@
       <c r="B358" s="0" t="n">
         <v>346</v>
       </c>
-      <c r="C358" s="54" t="n">
+      <c r="C358" s="49" t="n">
         <f aca="false">IF($I$5^B358*$G$7&gt;$H$7,$I$5^B358*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5113,7 +5093,7 @@
       <c r="B359" s="0" t="n">
         <v>347</v>
       </c>
-      <c r="C359" s="54" t="n">
+      <c r="C359" s="49" t="n">
         <f aca="false">IF($I$5^B359*$G$7&gt;$H$7,$I$5^B359*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5122,7 +5102,7 @@
       <c r="B360" s="0" t="n">
         <v>348</v>
       </c>
-      <c r="C360" s="54" t="n">
+      <c r="C360" s="49" t="n">
         <f aca="false">IF($I$5^B360*$G$7&gt;$H$7,$I$5^B360*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5131,7 +5111,7 @@
       <c r="B361" s="0" t="n">
         <v>349</v>
       </c>
-      <c r="C361" s="54" t="n">
+      <c r="C361" s="49" t="n">
         <f aca="false">IF($I$5^B361*$G$7&gt;$H$7,$I$5^B361*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5140,7 +5120,7 @@
       <c r="B362" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="C362" s="54" t="n">
+      <c r="C362" s="49" t="n">
         <f aca="false">IF($I$5^B362*$G$7&gt;$H$7,$I$5^B362*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5149,7 +5129,7 @@
       <c r="B363" s="0" t="n">
         <v>351</v>
       </c>
-      <c r="C363" s="54" t="n">
+      <c r="C363" s="49" t="n">
         <f aca="false">IF($I$5^B363*$G$7&gt;$H$7,$I$5^B363*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5158,7 +5138,7 @@
       <c r="B364" s="0" t="n">
         <v>352</v>
       </c>
-      <c r="C364" s="54" t="n">
+      <c r="C364" s="49" t="n">
         <f aca="false">IF($I$5^B364*$G$7&gt;$H$7,$I$5^B364*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5167,7 +5147,7 @@
       <c r="B365" s="0" t="n">
         <v>353</v>
       </c>
-      <c r="C365" s="54" t="n">
+      <c r="C365" s="49" t="n">
         <f aca="false">IF($I$5^B365*$G$7&gt;$H$7,$I$5^B365*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5176,7 +5156,7 @@
       <c r="B366" s="0" t="n">
         <v>354</v>
       </c>
-      <c r="C366" s="54" t="n">
+      <c r="C366" s="49" t="n">
         <f aca="false">IF($I$5^B366*$G$7&gt;$H$7,$I$5^B366*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5185,7 +5165,7 @@
       <c r="B367" s="0" t="n">
         <v>355</v>
       </c>
-      <c r="C367" s="54" t="n">
+      <c r="C367" s="49" t="n">
         <f aca="false">IF($I$5^B367*$G$7&gt;$H$7,$I$5^B367*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5194,7 +5174,7 @@
       <c r="B368" s="0" t="n">
         <v>356</v>
       </c>
-      <c r="C368" s="54" t="n">
+      <c r="C368" s="49" t="n">
         <f aca="false">IF($I$5^B368*$G$7&gt;$H$7,$I$5^B368*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5203,7 +5183,7 @@
       <c r="B369" s="0" t="n">
         <v>357</v>
       </c>
-      <c r="C369" s="54" t="n">
+      <c r="C369" s="49" t="n">
         <f aca="false">IF($I$5^B369*$G$7&gt;$H$7,$I$5^B369*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5212,7 +5192,7 @@
       <c r="B370" s="0" t="n">
         <v>358</v>
       </c>
-      <c r="C370" s="54" t="n">
+      <c r="C370" s="49" t="n">
         <f aca="false">IF($I$5^B370*$G$7&gt;$H$7,$I$5^B370*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5221,7 +5201,7 @@
       <c r="B371" s="0" t="n">
         <v>359</v>
       </c>
-      <c r="C371" s="54" t="n">
+      <c r="C371" s="49" t="n">
         <f aca="false">IF($I$5^B371*$G$7&gt;$H$7,$I$5^B371*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5230,7 +5210,7 @@
       <c r="B372" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="C372" s="54" t="n">
+      <c r="C372" s="49" t="n">
         <f aca="false">IF($I$5^B372*$G$7&gt;$H$7,$I$5^B372*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5239,7 +5219,7 @@
       <c r="B373" s="0" t="n">
         <v>361</v>
       </c>
-      <c r="C373" s="54" t="n">
+      <c r="C373" s="49" t="n">
         <f aca="false">IF($I$5^B373*$G$7&gt;$H$7,$I$5^B373*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5248,7 +5228,7 @@
       <c r="B374" s="0" t="n">
         <v>362</v>
       </c>
-      <c r="C374" s="54" t="n">
+      <c r="C374" s="49" t="n">
         <f aca="false">IF($I$5^B374*$G$7&gt;$H$7,$I$5^B374*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5257,7 +5237,7 @@
       <c r="B375" s="0" t="n">
         <v>363</v>
       </c>
-      <c r="C375" s="54" t="n">
+      <c r="C375" s="49" t="n">
         <f aca="false">IF($I$5^B375*$G$7&gt;$H$7,$I$5^B375*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5266,7 +5246,7 @@
       <c r="B376" s="0" t="n">
         <v>364</v>
       </c>
-      <c r="C376" s="54" t="n">
+      <c r="C376" s="49" t="n">
         <f aca="false">IF($I$5^B376*$G$7&gt;$H$7,$I$5^B376*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5275,7 +5255,7 @@
       <c r="B377" s="0" t="n">
         <v>365</v>
       </c>
-      <c r="C377" s="54" t="n">
+      <c r="C377" s="49" t="n">
         <f aca="false">IF($I$5^B377*$G$7&gt;$H$7,$I$5^B377*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5284,7 +5264,7 @@
       <c r="B378" s="0" t="n">
         <v>366</v>
       </c>
-      <c r="C378" s="54" t="n">
+      <c r="C378" s="49" t="n">
         <f aca="false">IF($I$5^B378*$G$7&gt;$H$7,$I$5^B378*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5293,7 +5273,7 @@
       <c r="B379" s="0" t="n">
         <v>367</v>
       </c>
-      <c r="C379" s="54" t="n">
+      <c r="C379" s="49" t="n">
         <f aca="false">IF($I$5^B379*$G$7&gt;$H$7,$I$5^B379*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5302,7 +5282,7 @@
       <c r="B380" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="C380" s="54" t="n">
+      <c r="C380" s="49" t="n">
         <f aca="false">IF($I$5^B380*$G$7&gt;$H$7,$I$5^B380*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5311,7 +5291,7 @@
       <c r="B381" s="0" t="n">
         <v>369</v>
       </c>
-      <c r="C381" s="54" t="n">
+      <c r="C381" s="49" t="n">
         <f aca="false">IF($I$5^B381*$G$7&gt;$H$7,$I$5^B381*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5320,7 +5300,7 @@
       <c r="B382" s="0" t="n">
         <v>370</v>
       </c>
-      <c r="C382" s="54" t="n">
+      <c r="C382" s="49" t="n">
         <f aca="false">IF($I$5^B382*$G$7&gt;$H$7,$I$5^B382*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5329,7 +5309,7 @@
       <c r="B383" s="0" t="n">
         <v>371</v>
       </c>
-      <c r="C383" s="54" t="n">
+      <c r="C383" s="49" t="n">
         <f aca="false">IF($I$5^B383*$G$7&gt;$H$7,$I$5^B383*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5338,7 +5318,7 @@
       <c r="B384" s="0" t="n">
         <v>372</v>
       </c>
-      <c r="C384" s="54" t="n">
+      <c r="C384" s="49" t="n">
         <f aca="false">IF($I$5^B384*$G$7&gt;$H$7,$I$5^B384*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5347,7 +5327,7 @@
       <c r="B385" s="0" t="n">
         <v>373</v>
       </c>
-      <c r="C385" s="54" t="n">
+      <c r="C385" s="49" t="n">
         <f aca="false">IF($I$5^B385*$G$7&gt;$H$7,$I$5^B385*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5356,7 +5336,7 @@
       <c r="B386" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="C386" s="54" t="n">
+      <c r="C386" s="49" t="n">
         <f aca="false">IF($I$5^B386*$G$7&gt;$H$7,$I$5^B386*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5365,7 +5345,7 @@
       <c r="B387" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="C387" s="54" t="n">
+      <c r="C387" s="49" t="n">
         <f aca="false">IF($I$5^B387*$G$7&gt;$H$7,$I$5^B387*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5374,7 +5354,7 @@
       <c r="B388" s="0" t="n">
         <v>376</v>
       </c>
-      <c r="C388" s="54" t="n">
+      <c r="C388" s="49" t="n">
         <f aca="false">IF($I$5^B388*$G$7&gt;$H$7,$I$5^B388*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5383,7 +5363,7 @@
       <c r="B389" s="0" t="n">
         <v>377</v>
       </c>
-      <c r="C389" s="54" t="n">
+      <c r="C389" s="49" t="n">
         <f aca="false">IF($I$5^B389*$G$7&gt;$H$7,$I$5^B389*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5392,7 +5372,7 @@
       <c r="B390" s="0" t="n">
         <v>378</v>
       </c>
-      <c r="C390" s="54" t="n">
+      <c r="C390" s="49" t="n">
         <f aca="false">IF($I$5^B390*$G$7&gt;$H$7,$I$5^B390*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5401,7 +5381,7 @@
       <c r="B391" s="0" t="n">
         <v>379</v>
       </c>
-      <c r="C391" s="54" t="n">
+      <c r="C391" s="49" t="n">
         <f aca="false">IF($I$5^B391*$G$7&gt;$H$7,$I$5^B391*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5410,7 +5390,7 @@
       <c r="B392" s="0" t="n">
         <v>380</v>
       </c>
-      <c r="C392" s="54" t="n">
+      <c r="C392" s="49" t="n">
         <f aca="false">IF($I$5^B392*$G$7&gt;$H$7,$I$5^B392*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5419,7 +5399,7 @@
       <c r="B393" s="0" t="n">
         <v>381</v>
       </c>
-      <c r="C393" s="54" t="n">
+      <c r="C393" s="49" t="n">
         <f aca="false">IF($I$5^B393*$G$7&gt;$H$7,$I$5^B393*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5428,7 +5408,7 @@
       <c r="B394" s="0" t="n">
         <v>382</v>
       </c>
-      <c r="C394" s="54" t="n">
+      <c r="C394" s="49" t="n">
         <f aca="false">IF($I$5^B394*$G$7&gt;$H$7,$I$5^B394*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5437,7 +5417,7 @@
       <c r="B395" s="0" t="n">
         <v>383</v>
       </c>
-      <c r="C395" s="54" t="n">
+      <c r="C395" s="49" t="n">
         <f aca="false">IF($I$5^B395*$G$7&gt;$H$7,$I$5^B395*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5446,7 +5426,7 @@
       <c r="B396" s="0" t="n">
         <v>384</v>
       </c>
-      <c r="C396" s="54" t="n">
+      <c r="C396" s="49" t="n">
         <f aca="false">IF($I$5^B396*$G$7&gt;$H$7,$I$5^B396*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5455,7 +5435,7 @@
       <c r="B397" s="0" t="n">
         <v>385</v>
       </c>
-      <c r="C397" s="54" t="n">
+      <c r="C397" s="49" t="n">
         <f aca="false">IF($I$5^B397*$G$7&gt;$H$7,$I$5^B397*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5464,7 +5444,7 @@
       <c r="B398" s="0" t="n">
         <v>386</v>
       </c>
-      <c r="C398" s="54" t="n">
+      <c r="C398" s="49" t="n">
         <f aca="false">IF($I$5^B398*$G$7&gt;$H$7,$I$5^B398*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5473,7 +5453,7 @@
       <c r="B399" s="0" t="n">
         <v>387</v>
       </c>
-      <c r="C399" s="54" t="n">
+      <c r="C399" s="49" t="n">
         <f aca="false">IF($I$5^B399*$G$7&gt;$H$7,$I$5^B399*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5482,7 +5462,7 @@
       <c r="B400" s="0" t="n">
         <v>388</v>
       </c>
-      <c r="C400" s="54" t="n">
+      <c r="C400" s="49" t="n">
         <f aca="false">IF($I$5^B400*$G$7&gt;$H$7,$I$5^B400*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5491,7 +5471,7 @@
       <c r="B401" s="0" t="n">
         <v>389</v>
       </c>
-      <c r="C401" s="54" t="n">
+      <c r="C401" s="49" t="n">
         <f aca="false">IF($I$5^B401*$G$7&gt;$H$7,$I$5^B401*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5500,7 +5480,7 @@
       <c r="B402" s="0" t="n">
         <v>390</v>
       </c>
-      <c r="C402" s="54" t="n">
+      <c r="C402" s="49" t="n">
         <f aca="false">IF($I$5^B402*$G$7&gt;$H$7,$I$5^B402*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5509,7 +5489,7 @@
       <c r="B403" s="0" t="n">
         <v>391</v>
       </c>
-      <c r="C403" s="54" t="n">
+      <c r="C403" s="49" t="n">
         <f aca="false">IF($I$5^B403*$G$7&gt;$H$7,$I$5^B403*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5518,7 +5498,7 @@
       <c r="B404" s="0" t="n">
         <v>392</v>
       </c>
-      <c r="C404" s="54" t="n">
+      <c r="C404" s="49" t="n">
         <f aca="false">IF($I$5^B404*$G$7&gt;$H$7,$I$5^B404*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5527,7 +5507,7 @@
       <c r="B405" s="0" t="n">
         <v>393</v>
       </c>
-      <c r="C405" s="54" t="n">
+      <c r="C405" s="49" t="n">
         <f aca="false">IF($I$5^B405*$G$7&gt;$H$7,$I$5^B405*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5536,7 +5516,7 @@
       <c r="B406" s="0" t="n">
         <v>394</v>
       </c>
-      <c r="C406" s="54" t="n">
+      <c r="C406" s="49" t="n">
         <f aca="false">IF($I$5^B406*$G$7&gt;$H$7,$I$5^B406*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5545,7 +5525,7 @@
       <c r="B407" s="0" t="n">
         <v>395</v>
       </c>
-      <c r="C407" s="54" t="n">
+      <c r="C407" s="49" t="n">
         <f aca="false">IF($I$5^B407*$G$7&gt;$H$7,$I$5^B407*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5554,7 +5534,7 @@
       <c r="B408" s="0" t="n">
         <v>396</v>
       </c>
-      <c r="C408" s="54" t="n">
+      <c r="C408" s="49" t="n">
         <f aca="false">IF($I$5^B408*$G$7&gt;$H$7,$I$5^B408*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5563,7 +5543,7 @@
       <c r="B409" s="0" t="n">
         <v>397</v>
       </c>
-      <c r="C409" s="54" t="n">
+      <c r="C409" s="49" t="n">
         <f aca="false">IF($I$5^B409*$G$7&gt;$H$7,$I$5^B409*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5572,7 +5552,7 @@
       <c r="B410" s="0" t="n">
         <v>398</v>
       </c>
-      <c r="C410" s="54" t="n">
+      <c r="C410" s="49" t="n">
         <f aca="false">IF($I$5^B410*$G$7&gt;$H$7,$I$5^B410*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5581,7 +5561,7 @@
       <c r="B411" s="0" t="n">
         <v>399</v>
       </c>
-      <c r="C411" s="54" t="n">
+      <c r="C411" s="49" t="n">
         <f aca="false">IF($I$5^B411*$G$7&gt;$H$7,$I$5^B411*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5590,7 +5570,7 @@
       <c r="B412" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="C412" s="54" t="n">
+      <c r="C412" s="49" t="n">
         <f aca="false">IF($I$5^B412*$G$7&gt;$H$7,$I$5^B412*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5599,7 +5579,7 @@
       <c r="B413" s="0" t="n">
         <v>401</v>
       </c>
-      <c r="C413" s="54" t="n">
+      <c r="C413" s="49" t="n">
         <f aca="false">IF($I$5^B413*$G$7&gt;$H$7,$I$5^B413*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5608,7 +5588,7 @@
       <c r="B414" s="0" t="n">
         <v>402</v>
       </c>
-      <c r="C414" s="54" t="n">
+      <c r="C414" s="49" t="n">
         <f aca="false">IF($I$5^B414*$G$7&gt;$H$7,$I$5^B414*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5617,7 +5597,7 @@
       <c r="B415" s="0" t="n">
         <v>403</v>
       </c>
-      <c r="C415" s="54" t="n">
+      <c r="C415" s="49" t="n">
         <f aca="false">IF($I$5^B415*$G$7&gt;$H$7,$I$5^B415*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5626,7 +5606,7 @@
       <c r="B416" s="0" t="n">
         <v>404</v>
       </c>
-      <c r="C416" s="54" t="n">
+      <c r="C416" s="49" t="n">
         <f aca="false">IF($I$5^B416*$G$7&gt;$H$7,$I$5^B416*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5635,7 +5615,7 @@
       <c r="B417" s="0" t="n">
         <v>405</v>
       </c>
-      <c r="C417" s="54" t="n">
+      <c r="C417" s="49" t="n">
         <f aca="false">IF($I$5^B417*$G$7&gt;$H$7,$I$5^B417*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5644,7 +5624,7 @@
       <c r="B418" s="0" t="n">
         <v>406</v>
       </c>
-      <c r="C418" s="54" t="n">
+      <c r="C418" s="49" t="n">
         <f aca="false">IF($I$5^B418*$G$7&gt;$H$7,$I$5^B418*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5653,7 +5633,7 @@
       <c r="B419" s="0" t="n">
         <v>407</v>
       </c>
-      <c r="C419" s="54" t="n">
+      <c r="C419" s="49" t="n">
         <f aca="false">IF($I$5^B419*$G$7&gt;$H$7,$I$5^B419*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5662,7 +5642,7 @@
       <c r="B420" s="0" t="n">
         <v>408</v>
       </c>
-      <c r="C420" s="54" t="n">
+      <c r="C420" s="49" t="n">
         <f aca="false">IF($I$5^B420*$G$7&gt;$H$7,$I$5^B420*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5671,7 +5651,7 @@
       <c r="B421" s="0" t="n">
         <v>409</v>
       </c>
-      <c r="C421" s="54" t="n">
+      <c r="C421" s="49" t="n">
         <f aca="false">IF($I$5^B421*$G$7&gt;$H$7,$I$5^B421*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5680,7 +5660,7 @@
       <c r="B422" s="0" t="n">
         <v>410</v>
       </c>
-      <c r="C422" s="54" t="n">
+      <c r="C422" s="49" t="n">
         <f aca="false">IF($I$5^B422*$G$7&gt;$H$7,$I$5^B422*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5689,7 +5669,7 @@
       <c r="B423" s="0" t="n">
         <v>411</v>
       </c>
-      <c r="C423" s="54" t="n">
+      <c r="C423" s="49" t="n">
         <f aca="false">IF($I$5^B423*$G$7&gt;$H$7,$I$5^B423*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5698,7 +5678,7 @@
       <c r="B424" s="0" t="n">
         <v>412</v>
       </c>
-      <c r="C424" s="54" t="n">
+      <c r="C424" s="49" t="n">
         <f aca="false">IF($I$5^B424*$G$7&gt;$H$7,$I$5^B424*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5707,7 +5687,7 @@
       <c r="B425" s="0" t="n">
         <v>413</v>
       </c>
-      <c r="C425" s="54" t="n">
+      <c r="C425" s="49" t="n">
         <f aca="false">IF($I$5^B425*$G$7&gt;$H$7,$I$5^B425*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5716,7 +5696,7 @@
       <c r="B426" s="0" t="n">
         <v>414</v>
       </c>
-      <c r="C426" s="54" t="n">
+      <c r="C426" s="49" t="n">
         <f aca="false">IF($I$5^B426*$G$7&gt;$H$7,$I$5^B426*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5725,7 +5705,7 @@
       <c r="B427" s="0" t="n">
         <v>415</v>
       </c>
-      <c r="C427" s="54" t="n">
+      <c r="C427" s="49" t="n">
         <f aca="false">IF($I$5^B427*$G$7&gt;$H$7,$I$5^B427*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5734,7 +5714,7 @@
       <c r="B428" s="0" t="n">
         <v>416</v>
       </c>
-      <c r="C428" s="54" t="n">
+      <c r="C428" s="49" t="n">
         <f aca="false">IF($I$5^B428*$G$7&gt;$H$7,$I$5^B428*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5743,7 +5723,7 @@
       <c r="B429" s="0" t="n">
         <v>417</v>
       </c>
-      <c r="C429" s="54" t="n">
+      <c r="C429" s="49" t="n">
         <f aca="false">IF($I$5^B429*$G$7&gt;$H$7,$I$5^B429*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5752,7 +5732,7 @@
       <c r="B430" s="0" t="n">
         <v>418</v>
       </c>
-      <c r="C430" s="54" t="n">
+      <c r="C430" s="49" t="n">
         <f aca="false">IF($I$5^B430*$G$7&gt;$H$7,$I$5^B430*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5761,7 +5741,7 @@
       <c r="B431" s="0" t="n">
         <v>419</v>
       </c>
-      <c r="C431" s="54" t="n">
+      <c r="C431" s="49" t="n">
         <f aca="false">IF($I$5^B431*$G$7&gt;$H$7,$I$5^B431*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5770,7 +5750,7 @@
       <c r="B432" s="0" t="n">
         <v>420</v>
       </c>
-      <c r="C432" s="54" t="n">
+      <c r="C432" s="49" t="n">
         <f aca="false">IF($I$5^B432*$G$7&gt;$H$7,$I$5^B432*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5779,7 +5759,7 @@
       <c r="B433" s="0" t="n">
         <v>421</v>
       </c>
-      <c r="C433" s="54" t="n">
+      <c r="C433" s="49" t="n">
         <f aca="false">IF($I$5^B433*$G$7&gt;$H$7,$I$5^B433*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5788,7 +5768,7 @@
       <c r="B434" s="0" t="n">
         <v>422</v>
       </c>
-      <c r="C434" s="54" t="n">
+      <c r="C434" s="49" t="n">
         <f aca="false">IF($I$5^B434*$G$7&gt;$H$7,$I$5^B434*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5797,7 +5777,7 @@
       <c r="B435" s="0" t="n">
         <v>423</v>
       </c>
-      <c r="C435" s="54" t="n">
+      <c r="C435" s="49" t="n">
         <f aca="false">IF($I$5^B435*$G$7&gt;$H$7,$I$5^B435*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5806,7 +5786,7 @@
       <c r="B436" s="0" t="n">
         <v>424</v>
       </c>
-      <c r="C436" s="54" t="n">
+      <c r="C436" s="49" t="n">
         <f aca="false">IF($I$5^B436*$G$7&gt;$H$7,$I$5^B436*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5815,7 +5795,7 @@
       <c r="B437" s="0" t="n">
         <v>425</v>
       </c>
-      <c r="C437" s="54" t="n">
+      <c r="C437" s="49" t="n">
         <f aca="false">IF($I$5^B437*$G$7&gt;$H$7,$I$5^B437*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5824,7 +5804,7 @@
       <c r="B438" s="0" t="n">
         <v>426</v>
       </c>
-      <c r="C438" s="54" t="n">
+      <c r="C438" s="49" t="n">
         <f aca="false">IF($I$5^B438*$G$7&gt;$H$7,$I$5^B438*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5833,7 +5813,7 @@
       <c r="B439" s="0" t="n">
         <v>427</v>
       </c>
-      <c r="C439" s="54" t="n">
+      <c r="C439" s="49" t="n">
         <f aca="false">IF($I$5^B439*$G$7&gt;$H$7,$I$5^B439*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5842,7 +5822,7 @@
       <c r="B440" s="0" t="n">
         <v>428</v>
       </c>
-      <c r="C440" s="54" t="n">
+      <c r="C440" s="49" t="n">
         <f aca="false">IF($I$5^B440*$G$7&gt;$H$7,$I$5^B440*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5851,7 +5831,7 @@
       <c r="B441" s="0" t="n">
         <v>429</v>
       </c>
-      <c r="C441" s="54" t="n">
+      <c r="C441" s="49" t="n">
         <f aca="false">IF($I$5^B441*$G$7&gt;$H$7,$I$5^B441*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5860,7 +5840,7 @@
       <c r="B442" s="0" t="n">
         <v>430</v>
       </c>
-      <c r="C442" s="54" t="n">
+      <c r="C442" s="49" t="n">
         <f aca="false">IF($I$5^B442*$G$7&gt;$H$7,$I$5^B442*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5869,7 +5849,7 @@
       <c r="B443" s="0" t="n">
         <v>431</v>
       </c>
-      <c r="C443" s="54" t="n">
+      <c r="C443" s="49" t="n">
         <f aca="false">IF($I$5^B443*$G$7&gt;$H$7,$I$5^B443*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5878,7 +5858,7 @@
       <c r="B444" s="0" t="n">
         <v>432</v>
       </c>
-      <c r="C444" s="54" t="n">
+      <c r="C444" s="49" t="n">
         <f aca="false">IF($I$5^B444*$G$7&gt;$H$7,$I$5^B444*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5887,7 +5867,7 @@
       <c r="B445" s="0" t="n">
         <v>433</v>
       </c>
-      <c r="C445" s="54" t="n">
+      <c r="C445" s="49" t="n">
         <f aca="false">IF($I$5^B445*$G$7&gt;$H$7,$I$5^B445*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5896,7 +5876,7 @@
       <c r="B446" s="0" t="n">
         <v>434</v>
       </c>
-      <c r="C446" s="54" t="n">
+      <c r="C446" s="49" t="n">
         <f aca="false">IF($I$5^B446*$G$7&gt;$H$7,$I$5^B446*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5905,7 +5885,7 @@
       <c r="B447" s="0" t="n">
         <v>435</v>
       </c>
-      <c r="C447" s="54" t="n">
+      <c r="C447" s="49" t="n">
         <f aca="false">IF($I$5^B447*$G$7&gt;$H$7,$I$5^B447*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5914,7 +5894,7 @@
       <c r="B448" s="0" t="n">
         <v>436</v>
       </c>
-      <c r="C448" s="54" t="n">
+      <c r="C448" s="49" t="n">
         <f aca="false">IF($I$5^B448*$G$7&gt;$H$7,$I$5^B448*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5923,7 +5903,7 @@
       <c r="B449" s="0" t="n">
         <v>437</v>
       </c>
-      <c r="C449" s="54" t="n">
+      <c r="C449" s="49" t="n">
         <f aca="false">IF($I$5^B449*$G$7&gt;$H$7,$I$5^B449*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5932,7 +5912,7 @@
       <c r="B450" s="0" t="n">
         <v>438</v>
       </c>
-      <c r="C450" s="54" t="n">
+      <c r="C450" s="49" t="n">
         <f aca="false">IF($I$5^B450*$G$7&gt;$H$7,$I$5^B450*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5941,7 +5921,7 @@
       <c r="B451" s="0" t="n">
         <v>439</v>
       </c>
-      <c r="C451" s="54" t="n">
+      <c r="C451" s="49" t="n">
         <f aca="false">IF($I$5^B451*$G$7&gt;$H$7,$I$5^B451*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5950,7 +5930,7 @@
       <c r="B452" s="0" t="n">
         <v>440</v>
       </c>
-      <c r="C452" s="54" t="n">
+      <c r="C452" s="49" t="n">
         <f aca="false">IF($I$5^B452*$G$7&gt;$H$7,$I$5^B452*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5959,7 +5939,7 @@
       <c r="B453" s="0" t="n">
         <v>441</v>
       </c>
-      <c r="C453" s="54" t="n">
+      <c r="C453" s="49" t="n">
         <f aca="false">IF($I$5^B453*$G$7&gt;$H$7,$I$5^B453*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5968,7 +5948,7 @@
       <c r="B454" s="0" t="n">
         <v>442</v>
       </c>
-      <c r="C454" s="54" t="n">
+      <c r="C454" s="49" t="n">
         <f aca="false">IF($I$5^B454*$G$7&gt;$H$7,$I$5^B454*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5977,7 +5957,7 @@
       <c r="B455" s="0" t="n">
         <v>443</v>
       </c>
-      <c r="C455" s="54" t="n">
+      <c r="C455" s="49" t="n">
         <f aca="false">IF($I$5^B455*$G$7&gt;$H$7,$I$5^B455*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5986,7 +5966,7 @@
       <c r="B456" s="0" t="n">
         <v>444</v>
       </c>
-      <c r="C456" s="54" t="n">
+      <c r="C456" s="49" t="n">
         <f aca="false">IF($I$5^B456*$G$7&gt;$H$7,$I$5^B456*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -5995,7 +5975,7 @@
       <c r="B457" s="0" t="n">
         <v>445</v>
       </c>
-      <c r="C457" s="54" t="n">
+      <c r="C457" s="49" t="n">
         <f aca="false">IF($I$5^B457*$G$7&gt;$H$7,$I$5^B457*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6004,7 +5984,7 @@
       <c r="B458" s="0" t="n">
         <v>446</v>
       </c>
-      <c r="C458" s="54" t="n">
+      <c r="C458" s="49" t="n">
         <f aca="false">IF($I$5^B458*$G$7&gt;$H$7,$I$5^B458*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6013,7 +5993,7 @@
       <c r="B459" s="0" t="n">
         <v>447</v>
       </c>
-      <c r="C459" s="54" t="n">
+      <c r="C459" s="49" t="n">
         <f aca="false">IF($I$5^B459*$G$7&gt;$H$7,$I$5^B459*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6022,7 +6002,7 @@
       <c r="B460" s="0" t="n">
         <v>448</v>
       </c>
-      <c r="C460" s="54" t="n">
+      <c r="C460" s="49" t="n">
         <f aca="false">IF($I$5^B460*$G$7&gt;$H$7,$I$5^B460*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6031,7 +6011,7 @@
       <c r="B461" s="0" t="n">
         <v>449</v>
       </c>
-      <c r="C461" s="54" t="n">
+      <c r="C461" s="49" t="n">
         <f aca="false">IF($I$5^B461*$G$7&gt;$H$7,$I$5^B461*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6040,7 +6020,7 @@
       <c r="B462" s="0" t="n">
         <v>450</v>
       </c>
-      <c r="C462" s="54" t="n">
+      <c r="C462" s="49" t="n">
         <f aca="false">IF($I$5^B462*$G$7&gt;$H$7,$I$5^B462*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6049,7 +6029,7 @@
       <c r="B463" s="0" t="n">
         <v>451</v>
       </c>
-      <c r="C463" s="54" t="n">
+      <c r="C463" s="49" t="n">
         <f aca="false">IF($I$5^B463*$G$7&gt;$H$7,$I$5^B463*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6058,7 +6038,7 @@
       <c r="B464" s="0" t="n">
         <v>452</v>
       </c>
-      <c r="C464" s="54" t="n">
+      <c r="C464" s="49" t="n">
         <f aca="false">IF($I$5^B464*$G$7&gt;$H$7,$I$5^B464*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6067,7 +6047,7 @@
       <c r="B465" s="0" t="n">
         <v>453</v>
       </c>
-      <c r="C465" s="54" t="n">
+      <c r="C465" s="49" t="n">
         <f aca="false">IF($I$5^B465*$G$7&gt;$H$7,$I$5^B465*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6076,7 +6056,7 @@
       <c r="B466" s="0" t="n">
         <v>454</v>
       </c>
-      <c r="C466" s="54" t="n">
+      <c r="C466" s="49" t="n">
         <f aca="false">IF($I$5^B466*$G$7&gt;$H$7,$I$5^B466*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6085,7 +6065,7 @@
       <c r="B467" s="0" t="n">
         <v>455</v>
       </c>
-      <c r="C467" s="54" t="n">
+      <c r="C467" s="49" t="n">
         <f aca="false">IF($I$5^B467*$G$7&gt;$H$7,$I$5^B467*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6094,7 +6074,7 @@
       <c r="B468" s="0" t="n">
         <v>456</v>
       </c>
-      <c r="C468" s="54" t="n">
+      <c r="C468" s="49" t="n">
         <f aca="false">IF($I$5^B468*$G$7&gt;$H$7,$I$5^B468*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6103,7 +6083,7 @@
       <c r="B469" s="0" t="n">
         <v>457</v>
       </c>
-      <c r="C469" s="54" t="n">
+      <c r="C469" s="49" t="n">
         <f aca="false">IF($I$5^B469*$G$7&gt;$H$7,$I$5^B469*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6112,7 +6092,7 @@
       <c r="B470" s="0" t="n">
         <v>458</v>
       </c>
-      <c r="C470" s="54" t="n">
+      <c r="C470" s="49" t="n">
         <f aca="false">IF($I$5^B470*$G$7&gt;$H$7,$I$5^B470*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6121,7 +6101,7 @@
       <c r="B471" s="0" t="n">
         <v>459</v>
       </c>
-      <c r="C471" s="54" t="n">
+      <c r="C471" s="49" t="n">
         <f aca="false">IF($I$5^B471*$G$7&gt;$H$7,$I$5^B471*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6130,7 +6110,7 @@
       <c r="B472" s="0" t="n">
         <v>460</v>
       </c>
-      <c r="C472" s="54" t="n">
+      <c r="C472" s="49" t="n">
         <f aca="false">IF($I$5^B472*$G$7&gt;$H$7,$I$5^B472*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6139,7 +6119,7 @@
       <c r="B473" s="0" t="n">
         <v>461</v>
       </c>
-      <c r="C473" s="54" t="n">
+      <c r="C473" s="49" t="n">
         <f aca="false">IF($I$5^B473*$G$7&gt;$H$7,$I$5^B473*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6148,7 +6128,7 @@
       <c r="B474" s="0" t="n">
         <v>462</v>
       </c>
-      <c r="C474" s="54" t="n">
+      <c r="C474" s="49" t="n">
         <f aca="false">IF($I$5^B474*$G$7&gt;$H$7,$I$5^B474*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6157,7 +6137,7 @@
       <c r="B475" s="0" t="n">
         <v>463</v>
       </c>
-      <c r="C475" s="54" t="n">
+      <c r="C475" s="49" t="n">
         <f aca="false">IF($I$5^B475*$G$7&gt;$H$7,$I$5^B475*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6166,7 +6146,7 @@
       <c r="B476" s="0" t="n">
         <v>464</v>
       </c>
-      <c r="C476" s="54" t="n">
+      <c r="C476" s="49" t="n">
         <f aca="false">IF($I$5^B476*$G$7&gt;$H$7,$I$5^B476*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6175,7 +6155,7 @@
       <c r="B477" s="0" t="n">
         <v>465</v>
       </c>
-      <c r="C477" s="54" t="n">
+      <c r="C477" s="49" t="n">
         <f aca="false">IF($I$5^B477*$G$7&gt;$H$7,$I$5^B477*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6184,7 +6164,7 @@
       <c r="B478" s="0" t="n">
         <v>466</v>
       </c>
-      <c r="C478" s="54" t="n">
+      <c r="C478" s="49" t="n">
         <f aca="false">IF($I$5^B478*$G$7&gt;$H$7,$I$5^B478*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6193,7 +6173,7 @@
       <c r="B479" s="0" t="n">
         <v>467</v>
       </c>
-      <c r="C479" s="54" t="n">
+      <c r="C479" s="49" t="n">
         <f aca="false">IF($I$5^B479*$G$7&gt;$H$7,$I$5^B479*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6202,7 +6182,7 @@
       <c r="B480" s="0" t="n">
         <v>468</v>
       </c>
-      <c r="C480" s="54" t="n">
+      <c r="C480" s="49" t="n">
         <f aca="false">IF($I$5^B480*$G$7&gt;$H$7,$I$5^B480*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6211,7 +6191,7 @@
       <c r="B481" s="0" t="n">
         <v>469</v>
       </c>
-      <c r="C481" s="54" t="n">
+      <c r="C481" s="49" t="n">
         <f aca="false">IF($I$5^B481*$G$7&gt;$H$7,$I$5^B481*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6220,7 +6200,7 @@
       <c r="B482" s="0" t="n">
         <v>470</v>
       </c>
-      <c r="C482" s="54" t="n">
+      <c r="C482" s="49" t="n">
         <f aca="false">IF($I$5^B482*$G$7&gt;$H$7,$I$5^B482*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6229,7 +6209,7 @@
       <c r="B483" s="0" t="n">
         <v>471</v>
       </c>
-      <c r="C483" s="54" t="n">
+      <c r="C483" s="49" t="n">
         <f aca="false">IF($I$5^B483*$G$7&gt;$H$7,$I$5^B483*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6238,7 +6218,7 @@
       <c r="B484" s="0" t="n">
         <v>472</v>
       </c>
-      <c r="C484" s="54" t="n">
+      <c r="C484" s="49" t="n">
         <f aca="false">IF($I$5^B484*$G$7&gt;$H$7,$I$5^B484*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6247,7 +6227,7 @@
       <c r="B485" s="0" t="n">
         <v>473</v>
       </c>
-      <c r="C485" s="54" t="n">
+      <c r="C485" s="49" t="n">
         <f aca="false">IF($I$5^B485*$G$7&gt;$H$7,$I$5^B485*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6256,7 +6236,7 @@
       <c r="B486" s="0" t="n">
         <v>474</v>
       </c>
-      <c r="C486" s="54" t="n">
+      <c r="C486" s="49" t="n">
         <f aca="false">IF($I$5^B486*$G$7&gt;$H$7,$I$5^B486*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6265,7 +6245,7 @@
       <c r="B487" s="0" t="n">
         <v>475</v>
       </c>
-      <c r="C487" s="54" t="n">
+      <c r="C487" s="49" t="n">
         <f aca="false">IF($I$5^B487*$G$7&gt;$H$7,$I$5^B487*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6274,7 +6254,7 @@
       <c r="B488" s="0" t="n">
         <v>476</v>
       </c>
-      <c r="C488" s="54" t="n">
+      <c r="C488" s="49" t="n">
         <f aca="false">IF($I$5^B488*$G$7&gt;$H$7,$I$5^B488*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6283,7 +6263,7 @@
       <c r="B489" s="0" t="n">
         <v>477</v>
       </c>
-      <c r="C489" s="54" t="n">
+      <c r="C489" s="49" t="n">
         <f aca="false">IF($I$5^B489*$G$7&gt;$H$7,$I$5^B489*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6292,7 +6272,7 @@
       <c r="B490" s="0" t="n">
         <v>478</v>
       </c>
-      <c r="C490" s="54" t="n">
+      <c r="C490" s="49" t="n">
         <f aca="false">IF($I$5^B490*$G$7&gt;$H$7,$I$5^B490*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6301,7 +6281,7 @@
       <c r="B491" s="0" t="n">
         <v>479</v>
       </c>
-      <c r="C491" s="54" t="n">
+      <c r="C491" s="49" t="n">
         <f aca="false">IF($I$5^B491*$G$7&gt;$H$7,$I$5^B491*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6310,7 +6290,7 @@
       <c r="B492" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="C492" s="54" t="n">
+      <c r="C492" s="49" t="n">
         <f aca="false">IF($I$5^B492*$G$7&gt;$H$7,$I$5^B492*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6319,7 +6299,7 @@
       <c r="B493" s="0" t="n">
         <v>481</v>
       </c>
-      <c r="C493" s="54" t="n">
+      <c r="C493" s="49" t="n">
         <f aca="false">IF($I$5^B493*$G$7&gt;$H$7,$I$5^B493*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6328,7 +6308,7 @@
       <c r="B494" s="0" t="n">
         <v>482</v>
       </c>
-      <c r="C494" s="54" t="n">
+      <c r="C494" s="49" t="n">
         <f aca="false">IF($I$5^B494*$G$7&gt;$H$7,$I$5^B494*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6337,7 +6317,7 @@
       <c r="B495" s="0" t="n">
         <v>483</v>
       </c>
-      <c r="C495" s="54" t="n">
+      <c r="C495" s="49" t="n">
         <f aca="false">IF($I$5^B495*$G$7&gt;$H$7,$I$5^B495*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6346,7 +6326,7 @@
       <c r="B496" s="0" t="n">
         <v>484</v>
       </c>
-      <c r="C496" s="54" t="n">
+      <c r="C496" s="49" t="n">
         <f aca="false">IF($I$5^B496*$G$7&gt;$H$7,$I$5^B496*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6355,7 +6335,7 @@
       <c r="B497" s="0" t="n">
         <v>485</v>
       </c>
-      <c r="C497" s="54" t="n">
+      <c r="C497" s="49" t="n">
         <f aca="false">IF($I$5^B497*$G$7&gt;$H$7,$I$5^B497*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6364,7 +6344,7 @@
       <c r="B498" s="0" t="n">
         <v>486</v>
       </c>
-      <c r="C498" s="54" t="n">
+      <c r="C498" s="49" t="n">
         <f aca="false">IF($I$5^B498*$G$7&gt;$H$7,$I$5^B498*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6373,7 +6353,7 @@
       <c r="B499" s="0" t="n">
         <v>487</v>
       </c>
-      <c r="C499" s="54" t="n">
+      <c r="C499" s="49" t="n">
         <f aca="false">IF($I$5^B499*$G$7&gt;$H$7,$I$5^B499*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6382,7 +6362,7 @@
       <c r="B500" s="0" t="n">
         <v>488</v>
       </c>
-      <c r="C500" s="54" t="n">
+      <c r="C500" s="49" t="n">
         <f aca="false">IF($I$5^B500*$G$7&gt;$H$7,$I$5^B500*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6391,7 +6371,7 @@
       <c r="B501" s="0" t="n">
         <v>489</v>
       </c>
-      <c r="C501" s="54" t="n">
+      <c r="C501" s="49" t="n">
         <f aca="false">IF($I$5^B501*$G$7&gt;$H$7,$I$5^B501*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6400,7 +6380,7 @@
       <c r="B502" s="0" t="n">
         <v>490</v>
       </c>
-      <c r="C502" s="54" t="n">
+      <c r="C502" s="49" t="n">
         <f aca="false">IF($I$5^B502*$G$7&gt;$H$7,$I$5^B502*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6409,7 +6389,7 @@
       <c r="B503" s="0" t="n">
         <v>491</v>
       </c>
-      <c r="C503" s="54" t="n">
+      <c r="C503" s="49" t="n">
         <f aca="false">IF($I$5^B503*$G$7&gt;$H$7,$I$5^B503*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6418,7 +6398,7 @@
       <c r="B504" s="0" t="n">
         <v>492</v>
       </c>
-      <c r="C504" s="54" t="n">
+      <c r="C504" s="49" t="n">
         <f aca="false">IF($I$5^B504*$G$7&gt;$H$7,$I$5^B504*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6427,7 +6407,7 @@
       <c r="B505" s="0" t="n">
         <v>493</v>
       </c>
-      <c r="C505" s="54" t="n">
+      <c r="C505" s="49" t="n">
         <f aca="false">IF($I$5^B505*$G$7&gt;$H$7,$I$5^B505*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6436,7 +6416,7 @@
       <c r="B506" s="0" t="n">
         <v>494</v>
       </c>
-      <c r="C506" s="54" t="n">
+      <c r="C506" s="49" t="n">
         <f aca="false">IF($I$5^B506*$G$7&gt;$H$7,$I$5^B506*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6445,7 +6425,7 @@
       <c r="B507" s="0" t="n">
         <v>495</v>
       </c>
-      <c r="C507" s="54" t="n">
+      <c r="C507" s="49" t="n">
         <f aca="false">IF($I$5^B507*$G$7&gt;$H$7,$I$5^B507*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6454,7 +6434,7 @@
       <c r="B508" s="0" t="n">
         <v>496</v>
       </c>
-      <c r="C508" s="54" t="n">
+      <c r="C508" s="49" t="n">
         <f aca="false">IF($I$5^B508*$G$7&gt;$H$7,$I$5^B508*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6463,7 +6443,7 @@
       <c r="B509" s="0" t="n">
         <v>497</v>
       </c>
-      <c r="C509" s="54" t="n">
+      <c r="C509" s="49" t="n">
         <f aca="false">IF($I$5^B509*$G$7&gt;$H$7,$I$5^B509*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6472,7 +6452,7 @@
       <c r="B510" s="0" t="n">
         <v>498</v>
       </c>
-      <c r="C510" s="54" t="n">
+      <c r="C510" s="49" t="n">
         <f aca="false">IF($I$5^B510*$G$7&gt;$H$7,$I$5^B510*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6481,7 +6461,7 @@
       <c r="B511" s="0" t="n">
         <v>499</v>
       </c>
-      <c r="C511" s="54" t="n">
+      <c r="C511" s="49" t="n">
         <f aca="false">IF($I$5^B511*$G$7&gt;$H$7,$I$5^B511*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6490,7 +6470,7 @@
       <c r="B512" s="0" t="n">
         <v>500</v>
       </c>
-      <c r="C512" s="54" t="n">
+      <c r="C512" s="49" t="n">
         <f aca="false">IF($I$5^B512*$G$7&gt;$H$7,$I$5^B512*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6499,7 +6479,7 @@
       <c r="B513" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="C513" s="54" t="n">
+      <c r="C513" s="49" t="n">
         <f aca="false">IF($I$5^B513*$G$7&gt;$H$7,$I$5^B513*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6508,7 +6488,7 @@
       <c r="B514" s="0" t="n">
         <v>502</v>
       </c>
-      <c r="C514" s="54" t="n">
+      <c r="C514" s="49" t="n">
         <f aca="false">IF($I$5^B514*$G$7&gt;$H$7,$I$5^B514*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6517,7 +6497,7 @@
       <c r="B515" s="0" t="n">
         <v>503</v>
       </c>
-      <c r="C515" s="54" t="n">
+      <c r="C515" s="49" t="n">
         <f aca="false">IF($I$5^B515*$G$7&gt;$H$7,$I$5^B515*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6526,7 +6506,7 @@
       <c r="B516" s="0" t="n">
         <v>504</v>
       </c>
-      <c r="C516" s="54" t="n">
+      <c r="C516" s="49" t="n">
         <f aca="false">IF($I$5^B516*$G$7&gt;$H$7,$I$5^B516*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6535,7 +6515,7 @@
       <c r="B517" s="0" t="n">
         <v>505</v>
       </c>
-      <c r="C517" s="54" t="n">
+      <c r="C517" s="49" t="n">
         <f aca="false">IF($I$5^B517*$G$7&gt;$H$7,$I$5^B517*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6544,7 +6524,7 @@
       <c r="B518" s="0" t="n">
         <v>506</v>
       </c>
-      <c r="C518" s="54" t="n">
+      <c r="C518" s="49" t="n">
         <f aca="false">IF($I$5^B518*$G$7&gt;$H$7,$I$5^B518*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6553,7 +6533,7 @@
       <c r="B519" s="0" t="n">
         <v>507</v>
       </c>
-      <c r="C519" s="54" t="n">
+      <c r="C519" s="49" t="n">
         <f aca="false">IF($I$5^B519*$G$7&gt;$H$7,$I$5^B519*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6562,7 +6542,7 @@
       <c r="B520" s="0" t="n">
         <v>508</v>
       </c>
-      <c r="C520" s="54" t="n">
+      <c r="C520" s="49" t="n">
         <f aca="false">IF($I$5^B520*$G$7&gt;$H$7,$I$5^B520*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6571,7 +6551,7 @@
       <c r="B521" s="0" t="n">
         <v>509</v>
       </c>
-      <c r="C521" s="54" t="n">
+      <c r="C521" s="49" t="n">
         <f aca="false">IF($I$5^B521*$G$7&gt;$H$7,$I$5^B521*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6580,7 +6560,7 @@
       <c r="B522" s="0" t="n">
         <v>510</v>
       </c>
-      <c r="C522" s="54" t="n">
+      <c r="C522" s="49" t="n">
         <f aca="false">IF($I$5^B522*$G$7&gt;$H$7,$I$5^B522*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6589,7 +6569,7 @@
       <c r="B523" s="0" t="n">
         <v>511</v>
       </c>
-      <c r="C523" s="54" t="n">
+      <c r="C523" s="49" t="n">
         <f aca="false">IF($I$5^B523*$G$7&gt;$H$7,$I$5^B523*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6598,7 +6578,7 @@
       <c r="B524" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="C524" s="54" t="n">
+      <c r="C524" s="49" t="n">
         <f aca="false">IF($I$5^B524*$G$7&gt;$H$7,$I$5^B524*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6607,7 +6587,7 @@
       <c r="B525" s="0" t="n">
         <v>513</v>
       </c>
-      <c r="C525" s="54" t="n">
+      <c r="C525" s="49" t="n">
         <f aca="false">IF($I$5^B525*$G$7&gt;$H$7,$I$5^B525*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6616,7 +6596,7 @@
       <c r="B526" s="0" t="n">
         <v>514</v>
       </c>
-      <c r="C526" s="54" t="n">
+      <c r="C526" s="49" t="n">
         <f aca="false">IF($I$5^B526*$G$7&gt;$H$7,$I$5^B526*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6625,7 +6605,7 @@
       <c r="B527" s="0" t="n">
         <v>515</v>
       </c>
-      <c r="C527" s="54" t="n">
+      <c r="C527" s="49" t="n">
         <f aca="false">IF($I$5^B527*$G$7&gt;$H$7,$I$5^B527*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6634,7 +6614,7 @@
       <c r="B528" s="0" t="n">
         <v>516</v>
       </c>
-      <c r="C528" s="54" t="n">
+      <c r="C528" s="49" t="n">
         <f aca="false">IF($I$5^B528*$G$7&gt;$H$7,$I$5^B528*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6643,7 +6623,7 @@
       <c r="B529" s="0" t="n">
         <v>517</v>
       </c>
-      <c r="C529" s="54" t="n">
+      <c r="C529" s="49" t="n">
         <f aca="false">IF($I$5^B529*$G$7&gt;$H$7,$I$5^B529*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6652,7 +6632,7 @@
       <c r="B530" s="0" t="n">
         <v>518</v>
       </c>
-      <c r="C530" s="54" t="n">
+      <c r="C530" s="49" t="n">
         <f aca="false">IF($I$5^B530*$G$7&gt;$H$7,$I$5^B530*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6661,7 +6641,7 @@
       <c r="B531" s="0" t="n">
         <v>519</v>
       </c>
-      <c r="C531" s="54" t="n">
+      <c r="C531" s="49" t="n">
         <f aca="false">IF($I$5^B531*$G$7&gt;$H$7,$I$5^B531*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6670,7 +6650,7 @@
       <c r="B532" s="0" t="n">
         <v>520</v>
       </c>
-      <c r="C532" s="54" t="n">
+      <c r="C532" s="49" t="n">
         <f aca="false">IF($I$5^B532*$G$7&gt;$H$7,$I$5^B532*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6679,7 +6659,7 @@
       <c r="B533" s="0" t="n">
         <v>521</v>
       </c>
-      <c r="C533" s="54" t="n">
+      <c r="C533" s="49" t="n">
         <f aca="false">IF($I$5^B533*$G$7&gt;$H$7,$I$5^B533*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6688,7 +6668,7 @@
       <c r="B534" s="0" t="n">
         <v>522</v>
       </c>
-      <c r="C534" s="54" t="n">
+      <c r="C534" s="49" t="n">
         <f aca="false">IF($I$5^B534*$G$7&gt;$H$7,$I$5^B534*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6697,7 +6677,7 @@
       <c r="B535" s="0" t="n">
         <v>523</v>
       </c>
-      <c r="C535" s="54" t="n">
+      <c r="C535" s="49" t="n">
         <f aca="false">IF($I$5^B535*$G$7&gt;$H$7,$I$5^B535*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6706,7 +6686,7 @@
       <c r="B536" s="0" t="n">
         <v>524</v>
       </c>
-      <c r="C536" s="54" t="n">
+      <c r="C536" s="49" t="n">
         <f aca="false">IF($I$5^B536*$G$7&gt;$H$7,$I$5^B536*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6715,7 +6695,7 @@
       <c r="B537" s="0" t="n">
         <v>525</v>
       </c>
-      <c r="C537" s="54" t="n">
+      <c r="C537" s="49" t="n">
         <f aca="false">IF($I$5^B537*$G$7&gt;$H$7,$I$5^B537*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6724,7 +6704,7 @@
       <c r="B538" s="0" t="n">
         <v>526</v>
       </c>
-      <c r="C538" s="54" t="n">
+      <c r="C538" s="49" t="n">
         <f aca="false">IF($I$5^B538*$G$7&gt;$H$7,$I$5^B538*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6733,7 +6713,7 @@
       <c r="B539" s="0" t="n">
         <v>527</v>
       </c>
-      <c r="C539" s="54" t="n">
+      <c r="C539" s="49" t="n">
         <f aca="false">IF($I$5^B539*$G$7&gt;$H$7,$I$5^B539*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6742,7 +6722,7 @@
       <c r="B540" s="0" t="n">
         <v>528</v>
       </c>
-      <c r="C540" s="54" t="n">
+      <c r="C540" s="49" t="n">
         <f aca="false">IF($I$5^B540*$G$7&gt;$H$7,$I$5^B540*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6751,7 +6731,7 @@
       <c r="B541" s="0" t="n">
         <v>529</v>
       </c>
-      <c r="C541" s="54" t="n">
+      <c r="C541" s="49" t="n">
         <f aca="false">IF($I$5^B541*$G$7&gt;$H$7,$I$5^B541*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6760,7 +6740,7 @@
       <c r="B542" s="0" t="n">
         <v>530</v>
       </c>
-      <c r="C542" s="54" t="n">
+      <c r="C542" s="49" t="n">
         <f aca="false">IF($I$5^B542*$G$7&gt;$H$7,$I$5^B542*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6769,7 +6749,7 @@
       <c r="B543" s="0" t="n">
         <v>531</v>
       </c>
-      <c r="C543" s="54" t="n">
+      <c r="C543" s="49" t="n">
         <f aca="false">IF($I$5^B543*$G$7&gt;$H$7,$I$5^B543*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6778,7 +6758,7 @@
       <c r="B544" s="0" t="n">
         <v>532</v>
       </c>
-      <c r="C544" s="54" t="n">
+      <c r="C544" s="49" t="n">
         <f aca="false">IF($I$5^B544*$G$7&gt;$H$7,$I$5^B544*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6787,7 +6767,7 @@
       <c r="B545" s="0" t="n">
         <v>533</v>
       </c>
-      <c r="C545" s="54" t="n">
+      <c r="C545" s="49" t="n">
         <f aca="false">IF($I$5^B545*$G$7&gt;$H$7,$I$5^B545*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6796,7 +6776,7 @@
       <c r="B546" s="0" t="n">
         <v>534</v>
       </c>
-      <c r="C546" s="54" t="n">
+      <c r="C546" s="49" t="n">
         <f aca="false">IF($I$5^B546*$G$7&gt;$H$7,$I$5^B546*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6805,7 +6785,7 @@
       <c r="B547" s="0" t="n">
         <v>535</v>
       </c>
-      <c r="C547" s="54" t="n">
+      <c r="C547" s="49" t="n">
         <f aca="false">IF($I$5^B547*$G$7&gt;$H$7,$I$5^B547*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6814,7 +6794,7 @@
       <c r="B548" s="0" t="n">
         <v>536</v>
       </c>
-      <c r="C548" s="54" t="n">
+      <c r="C548" s="49" t="n">
         <f aca="false">IF($I$5^B548*$G$7&gt;$H$7,$I$5^B548*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6823,7 +6803,7 @@
       <c r="B549" s="0" t="n">
         <v>537</v>
       </c>
-      <c r="C549" s="54" t="n">
+      <c r="C549" s="49" t="n">
         <f aca="false">IF($I$5^B549*$G$7&gt;$H$7,$I$5^B549*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6832,7 +6812,7 @@
       <c r="B550" s="0" t="n">
         <v>538</v>
       </c>
-      <c r="C550" s="54" t="n">
+      <c r="C550" s="49" t="n">
         <f aca="false">IF($I$5^B550*$G$7&gt;$H$7,$I$5^B550*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6841,7 +6821,7 @@
       <c r="B551" s="0" t="n">
         <v>539</v>
       </c>
-      <c r="C551" s="54" t="n">
+      <c r="C551" s="49" t="n">
         <f aca="false">IF($I$5^B551*$G$7&gt;$H$7,$I$5^B551*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6850,7 +6830,7 @@
       <c r="B552" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="C552" s="54" t="n">
+      <c r="C552" s="49" t="n">
         <f aca="false">IF($I$5^B552*$G$7&gt;$H$7,$I$5^B552*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6859,7 +6839,7 @@
       <c r="B553" s="0" t="n">
         <v>541</v>
       </c>
-      <c r="C553" s="54" t="n">
+      <c r="C553" s="49" t="n">
         <f aca="false">IF($I$5^B553*$G$7&gt;$H$7,$I$5^B553*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6868,7 +6848,7 @@
       <c r="B554" s="0" t="n">
         <v>542</v>
       </c>
-      <c r="C554" s="54" t="n">
+      <c r="C554" s="49" t="n">
         <f aca="false">IF($I$5^B554*$G$7&gt;$H$7,$I$5^B554*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6877,7 +6857,7 @@
       <c r="B555" s="0" t="n">
         <v>543</v>
       </c>
-      <c r="C555" s="54" t="n">
+      <c r="C555" s="49" t="n">
         <f aca="false">IF($I$5^B555*$G$7&gt;$H$7,$I$5^B555*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6886,7 +6866,7 @@
       <c r="B556" s="0" t="n">
         <v>544</v>
       </c>
-      <c r="C556" s="54" t="n">
+      <c r="C556" s="49" t="n">
         <f aca="false">IF($I$5^B556*$G$7&gt;$H$7,$I$5^B556*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6895,7 +6875,7 @@
       <c r="B557" s="0" t="n">
         <v>545</v>
       </c>
-      <c r="C557" s="54" t="n">
+      <c r="C557" s="49" t="n">
         <f aca="false">IF($I$5^B557*$G$7&gt;$H$7,$I$5^B557*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6904,7 +6884,7 @@
       <c r="B558" s="0" t="n">
         <v>546</v>
       </c>
-      <c r="C558" s="54" t="n">
+      <c r="C558" s="49" t="n">
         <f aca="false">IF($I$5^B558*$G$7&gt;$H$7,$I$5^B558*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6913,7 +6893,7 @@
       <c r="B559" s="0" t="n">
         <v>547</v>
       </c>
-      <c r="C559" s="54" t="n">
+      <c r="C559" s="49" t="n">
         <f aca="false">IF($I$5^B559*$G$7&gt;$H$7,$I$5^B559*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6922,7 +6902,7 @@
       <c r="B560" s="0" t="n">
         <v>548</v>
       </c>
-      <c r="C560" s="54" t="n">
+      <c r="C560" s="49" t="n">
         <f aca="false">IF($I$5^B560*$G$7&gt;$H$7,$I$5^B560*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6931,7 +6911,7 @@
       <c r="B561" s="0" t="n">
         <v>549</v>
       </c>
-      <c r="C561" s="54" t="n">
+      <c r="C561" s="49" t="n">
         <f aca="false">IF($I$5^B561*$G$7&gt;$H$7,$I$5^B561*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6940,7 +6920,7 @@
       <c r="B562" s="0" t="n">
         <v>550</v>
       </c>
-      <c r="C562" s="54" t="n">
+      <c r="C562" s="49" t="n">
         <f aca="false">IF($I$5^B562*$G$7&gt;$H$7,$I$5^B562*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6949,7 +6929,7 @@
       <c r="B563" s="0" t="n">
         <v>551</v>
       </c>
-      <c r="C563" s="54" t="n">
+      <c r="C563" s="49" t="n">
         <f aca="false">IF($I$5^B563*$G$7&gt;$H$7,$I$5^B563*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6958,7 +6938,7 @@
       <c r="B564" s="0" t="n">
         <v>552</v>
       </c>
-      <c r="C564" s="54" t="n">
+      <c r="C564" s="49" t="n">
         <f aca="false">IF($I$5^B564*$G$7&gt;$H$7,$I$5^B564*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6967,7 +6947,7 @@
       <c r="B565" s="0" t="n">
         <v>553</v>
       </c>
-      <c r="C565" s="54" t="n">
+      <c r="C565" s="49" t="n">
         <f aca="false">IF($I$5^B565*$G$7&gt;$H$7,$I$5^B565*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6976,7 +6956,7 @@
       <c r="B566" s="0" t="n">
         <v>554</v>
       </c>
-      <c r="C566" s="54" t="n">
+      <c r="C566" s="49" t="n">
         <f aca="false">IF($I$5^B566*$G$7&gt;$H$7,$I$5^B566*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6985,7 +6965,7 @@
       <c r="B567" s="0" t="n">
         <v>555</v>
       </c>
-      <c r="C567" s="54" t="n">
+      <c r="C567" s="49" t="n">
         <f aca="false">IF($I$5^B567*$G$7&gt;$H$7,$I$5^B567*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -6994,7 +6974,7 @@
       <c r="B568" s="0" t="n">
         <v>556</v>
       </c>
-      <c r="C568" s="54" t="n">
+      <c r="C568" s="49" t="n">
         <f aca="false">IF($I$5^B568*$G$7&gt;$H$7,$I$5^B568*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7003,7 +6983,7 @@
       <c r="B569" s="0" t="n">
         <v>557</v>
       </c>
-      <c r="C569" s="54" t="n">
+      <c r="C569" s="49" t="n">
         <f aca="false">IF($I$5^B569*$G$7&gt;$H$7,$I$5^B569*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7012,7 +6992,7 @@
       <c r="B570" s="0" t="n">
         <v>558</v>
       </c>
-      <c r="C570" s="54" t="n">
+      <c r="C570" s="49" t="n">
         <f aca="false">IF($I$5^B570*$G$7&gt;$H$7,$I$5^B570*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7021,7 +7001,7 @@
       <c r="B571" s="0" t="n">
         <v>559</v>
       </c>
-      <c r="C571" s="54" t="n">
+      <c r="C571" s="49" t="n">
         <f aca="false">IF($I$5^B571*$G$7&gt;$H$7,$I$5^B571*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7030,7 +7010,7 @@
       <c r="B572" s="0" t="n">
         <v>560</v>
       </c>
-      <c r="C572" s="54" t="n">
+      <c r="C572" s="49" t="n">
         <f aca="false">IF($I$5^B572*$G$7&gt;$H$7,$I$5^B572*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7039,7 +7019,7 @@
       <c r="B573" s="0" t="n">
         <v>561</v>
       </c>
-      <c r="C573" s="54" t="n">
+      <c r="C573" s="49" t="n">
         <f aca="false">IF($I$5^B573*$G$7&gt;$H$7,$I$5^B573*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7048,7 +7028,7 @@
       <c r="B574" s="0" t="n">
         <v>562</v>
       </c>
-      <c r="C574" s="54" t="n">
+      <c r="C574" s="49" t="n">
         <f aca="false">IF($I$5^B574*$G$7&gt;$H$7,$I$5^B574*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7057,7 +7037,7 @@
       <c r="B575" s="0" t="n">
         <v>563</v>
       </c>
-      <c r="C575" s="54" t="n">
+      <c r="C575" s="49" t="n">
         <f aca="false">IF($I$5^B575*$G$7&gt;$H$7,$I$5^B575*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7066,7 +7046,7 @@
       <c r="B576" s="0" t="n">
         <v>564</v>
       </c>
-      <c r="C576" s="54" t="n">
+      <c r="C576" s="49" t="n">
         <f aca="false">IF($I$5^B576*$G$7&gt;$H$7,$I$5^B576*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7075,7 +7055,7 @@
       <c r="B577" s="0" t="n">
         <v>565</v>
       </c>
-      <c r="C577" s="54" t="n">
+      <c r="C577" s="49" t="n">
         <f aca="false">IF($I$5^B577*$G$7&gt;$H$7,$I$5^B577*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7084,7 +7064,7 @@
       <c r="B578" s="0" t="n">
         <v>566</v>
       </c>
-      <c r="C578" s="54" t="n">
+      <c r="C578" s="49" t="n">
         <f aca="false">IF($I$5^B578*$G$7&gt;$H$7,$I$5^B578*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7093,7 +7073,7 @@
       <c r="B579" s="0" t="n">
         <v>567</v>
       </c>
-      <c r="C579" s="54" t="n">
+      <c r="C579" s="49" t="n">
         <f aca="false">IF($I$5^B579*$G$7&gt;$H$7,$I$5^B579*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7102,7 +7082,7 @@
       <c r="B580" s="0" t="n">
         <v>568</v>
       </c>
-      <c r="C580" s="54" t="n">
+      <c r="C580" s="49" t="n">
         <f aca="false">IF($I$5^B580*$G$7&gt;$H$7,$I$5^B580*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7111,7 +7091,7 @@
       <c r="B581" s="0" t="n">
         <v>569</v>
       </c>
-      <c r="C581" s="54" t="n">
+      <c r="C581" s="49" t="n">
         <f aca="false">IF($I$5^B581*$G$7&gt;$H$7,$I$5^B581*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7120,7 +7100,7 @@
       <c r="B582" s="0" t="n">
         <v>570</v>
       </c>
-      <c r="C582" s="54" t="n">
+      <c r="C582" s="49" t="n">
         <f aca="false">IF($I$5^B582*$G$7&gt;$H$7,$I$5^B582*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7129,7 +7109,7 @@
       <c r="B583" s="0" t="n">
         <v>571</v>
       </c>
-      <c r="C583" s="54" t="n">
+      <c r="C583" s="49" t="n">
         <f aca="false">IF($I$5^B583*$G$7&gt;$H$7,$I$5^B583*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7138,7 +7118,7 @@
       <c r="B584" s="0" t="n">
         <v>572</v>
       </c>
-      <c r="C584" s="54" t="n">
+      <c r="C584" s="49" t="n">
         <f aca="false">IF($I$5^B584*$G$7&gt;$H$7,$I$5^B584*$G$7,$H$7)</f>
         <v>21</v>
       </c>
@@ -7147,7 +7127,7 @@
       <c r="B585" s="0" t="n">
         <v>573</v>
       </c>
-      <c r="C585" s="54" t="n">
+      <c r="C585" s="49" t="n">
         <f aca="false">IF($I$5^B585*$G$7&gt;$H$7,$I$5^B585*$G$7,$H$7)</f>
         <v>21</v>
       </c>
